--- a/dados/bassanparts.xlsx
+++ b/dados/bassanparts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>politica</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>full</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -471,17 +481,23 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:728780866#searchVariation=MLB28557249&amp;position=10&amp;search_layout=grid&amp;type=product&amp;tracking_id=bb0c0221-02a4-4e35-9fbc-5183f8a27f2e</t>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:728780866#searchVariation=MLB28557249&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=4829dc36-b9ce-49a5-ad3d-548b235a6812</t>
         </is>
       </c>
     </row>
@@ -496,17 +512,23 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:728780866#searchVariation=MLB27685629&amp;position=3&amp;search_layout=grid&amp;type=product&amp;tracking_id=bb0c0221-02a4-4e35-9fbc-5183f8a27f2e</t>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:728780866#searchVariation=MLB27685629&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=4829dc36-b9ce-49a5-ad3d-548b235a6812</t>
         </is>
       </c>
     </row>
@@ -521,17 +543,23 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:728780866#searchVariation=MLB27970249&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=bb0c0221-02a4-4e35-9fbc-5183f8a27f2e</t>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:728780866#searchVariation=MLB27970249&amp;position=7&amp;search_layout=grid&amp;type=product&amp;tracking_id=4829dc36-b9ce-49a5-ad3d-548b235a6812</t>
         </is>
       </c>
     </row>
@@ -546,17 +574,27 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>FONTE 200A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:728780866#searchVariation=MLB21348561&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=bb0c0221-02a4-4e35-9fbc-5183f8a27f2e</t>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:728780866#searchVariation=MLB21348561&amp;position=10&amp;search_layout=grid&amp;type=product&amp;tracking_id=4829dc36-b9ce-49a5-ad3d-548b235a6812</t>
         </is>
       </c>
     </row>
@@ -571,17 +609,27 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:728780866#searchVariation=MLB22144397&amp;position=13&amp;search_layout=grid&amp;type=product&amp;tracking_id=bb0c0221-02a4-4e35-9fbc-5183f8a27f2e</t>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:728780866#searchVariation=MLB22144397&amp;position=13&amp;search_layout=grid&amp;type=product&amp;tracking_id=4829dc36-b9ce-49a5-ad3d-548b235a6812</t>
         </is>
       </c>
     </row>
@@ -596,17 +644,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:728780866#searchVariation=MLB21562641&amp;position=16&amp;search_layout=grid&amp;type=product&amp;tracking_id=bb0c0221-02a4-4e35-9fbc-5183f8a27f2e</t>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:728780866#searchVariation=MLB21562641&amp;position=14&amp;search_layout=grid&amp;type=product&amp;tracking_id=4829dc36-b9ce-49a5-ad3d-548b235a6812</t>
         </is>
       </c>
     </row>
@@ -621,17 +679,27 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:728780866#searchVariation=MLB24834408&amp;position=7&amp;search_layout=grid&amp;type=product&amp;tracking_id=bb0c0221-02a4-4e35-9fbc-5183f8a27f2e</t>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:728780866#searchVariation=MLB24834408&amp;position=17&amp;search_layout=grid&amp;type=product&amp;tracking_id=4829dc36-b9ce-49a5-ad3d-548b235a6812</t>
         </is>
       </c>
     </row>
@@ -646,17 +714,23 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:728780866#searchVariation=MLB28687615&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=bb0c0221-02a4-4e35-9fbc-5183f8a27f2e</t>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:728780866#searchVariation=MLB28687615&amp;position=11&amp;search_layout=grid&amp;type=product&amp;tracking_id=4829dc36-b9ce-49a5-ad3d-548b235a6812</t>
         </is>
       </c>
     </row>
@@ -671,17 +745,27 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>FONTE 60A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:728780866#searchVariation=MLB21320712&amp;position=26&amp;search_layout=grid&amp;type=product&amp;tracking_id=bb0c0221-02a4-4e35-9fbc-5183f8a27f2e</t>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:728780866#searchVariation=MLB21320712&amp;position=18&amp;search_layout=grid&amp;type=product&amp;tracking_id=4829dc36-b9ce-49a5-ad3d-548b235a6812</t>
         </is>
       </c>
     </row>
@@ -696,17 +780,23 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:728780866#searchVariation=MLB32364344&amp;position=25&amp;search_layout=grid&amp;type=product&amp;tracking_id=bb0c0221-02a4-4e35-9fbc-5183f8a27f2e</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:728780866#searchVariation=MLB32364344&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=4829dc36-b9ce-49a5-ad3d-548b235a6812</t>
         </is>
       </c>
     </row>
@@ -721,17 +811,23 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:728780866#searchVariation=MLB34210379&amp;position=30&amp;search_layout=grid&amp;type=product&amp;tracking_id=bb0c0221-02a4-4e35-9fbc-5183f8a27f2e</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:728780866#searchVariation=MLB34210379&amp;position=42&amp;search_layout=grid&amp;type=product&amp;tracking_id=4829dc36-b9ce-49a5-ad3d-548b235a6812</t>
         </is>
       </c>
     </row>
@@ -746,17 +842,27 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>FONTE 70A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:728780866#searchVariation=MLB21455208&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=bb0c0221-02a4-4e35-9fbc-5183f8a27f2e</t>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:728780866#searchVariation=MLB21455208&amp;position=45&amp;search_layout=grid&amp;type=product&amp;tracking_id=4829dc36-b9ce-49a5-ad3d-548b235a6812</t>
         </is>
       </c>
     </row>
@@ -771,17 +877,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>FONTE 40A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:728780866#searchVariation=MLB22569833&amp;position=50&amp;search_layout=grid&amp;type=product&amp;tracking_id=bb0c0221-02a4-4e35-9fbc-5183f8a27f2e</t>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:728780866#searchVariation=MLB22569833&amp;position=48&amp;search_layout=grid&amp;type=product&amp;tracking_id=4829dc36-b9ce-49a5-ad3d-548b235a6812</t>
         </is>
       </c>
     </row>
@@ -796,17 +912,27 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-bob-storm-200a-slim-bivolt-automatico-jfa-cor-preto/p/MLB27156459?pdp_filters=seller_id:728780866#searchVariation=MLB27156459&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=4b75811a-b46a-4492-8ad0-0d9dbd997f2b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-bob-storm-200a-slim-bivolt-automatico-jfa-cor-preto/p/MLB27156459?pdp_filters=seller_id:728780866#searchVariation=MLB27156459&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=d24f69b9-856e-4df6-8c7b-94a40fe65e43</t>
         </is>
       </c>
     </row>
@@ -821,17 +947,27 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 40A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:728780866#searchVariation=MLB21621306&amp;position=11&amp;search_layout=grid&amp;type=product&amp;tracking_id=4b75811a-b46a-4492-8ad0-0d9dbd997f2b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:728780866#searchVariation=MLB21621306&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=d24f69b9-856e-4df6-8c7b-94a40fe65e43</t>
         </is>
       </c>
     </row>
@@ -846,17 +982,27 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:728780866#searchVariation=MLB26091477&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=4b75811a-b46a-4492-8ad0-0d9dbd997f2b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:728780866#searchVariation=MLB26091477&amp;position=14&amp;search_layout=grid&amp;type=product&amp;tracking_id=d24f69b9-856e-4df6-8c7b-94a40fe65e43</t>
         </is>
       </c>
     </row>
@@ -871,17 +1017,27 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-digital-jfa-60a-slim-bivolt-automatica-cor-preto/p/MLB21630472?pdp_filters=seller_id:728780866#searchVariation=MLB21630472&amp;position=34&amp;search_layout=grid&amp;type=product&amp;tracking_id=4b75811a-b46a-4492-8ad0-0d9dbd997f2b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-digital-jfa-60a-slim-bivolt-automatica-cor-preto/p/MLB21630472?pdp_filters=seller_id:728780866#searchVariation=MLB21630472&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=d24f69b9-856e-4df6-8c7b-94a40fe65e43</t>
         </is>
       </c>
     </row>
@@ -896,17 +1052,23 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:728780866#searchVariation=MLB28722231&amp;position=29&amp;search_layout=grid&amp;type=product&amp;tracking_id=4b75811a-b46a-4492-8ad0-0d9dbd997f2b</t>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:728780866#searchVariation=MLB28722231&amp;position=26&amp;search_layout=grid&amp;type=product&amp;tracking_id=d24f69b9-856e-4df6-8c7b-94a40fe65e43</t>
         </is>
       </c>
     </row>
@@ -921,17 +1083,23 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2715926126-controle-longa-distncia-jfa-acqua-1200-a-prova-de-agua-aqua-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4b75811a-b46a-4492-8ad0-0d9dbd997f2b</t>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2715926126-controle-longa-distncia-jfa-acqua-1200-a-prova-de-agua-aqua-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd24f69b9-856e-4df6-8c7b-94a40fe65e43</t>
         </is>
       </c>
     </row>
@@ -946,17 +1114,27 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2715902228-fonte-som-automotivo-carregador-jfa-bob-storm-200a-caixa-bob-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4b75811a-b46a-4492-8ad0-0d9dbd997f2b</t>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2715902228-fonte-som-automotivo-carregador-jfa-bob-storm-200a-caixa-bob-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd24f69b9-856e-4df6-8c7b-94a40fe65e43</t>
         </is>
       </c>
     </row>
@@ -971,17 +1149,27 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3185302759-fonte-automotiva-60a-jfa-fonte-jfa-sistema-inteligente-sci-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D4b75811a-b46a-4492-8ad0-0d9dbd997f2b</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3185302759-fonte-automotiva-60a-jfa-fonte-jfa-sistema-inteligente-sci-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd24f69b9-856e-4df6-8c7b-94a40fe65e43</t>
         </is>
       </c>
     </row>
@@ -996,17 +1184,23 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3587956733-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D13ad2994-f3b0-4318-aad8-c3eaba062d94</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3587956733-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b400bd3-bd3c-4092-bdf8-f06be36ac7f8</t>
         </is>
       </c>
     </row>
@@ -1021,17 +1215,23 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2117294319-controle-remoto-universal-longa-distncia-jfa-k1200-vermelho-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D13ad2994-f3b0-4318-aad8-c3eaba062d94</t>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2117294319-controle-remoto-universal-longa-distncia-jfa-k1200-vermelho-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b400bd3-bd3c-4092-bdf8-f06be36ac7f8</t>
         </is>
       </c>
     </row>
@@ -1046,17 +1246,23 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2790537310-controle-longa-distncia-jfa-acqua-k1200-prova-de-agua-aqua-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D13ad2994-f3b0-4318-aad8-c3eaba062d94</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2790537310-controle-longa-distncia-jfa-acqua-k1200-prova-de-agua-aqua-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b400bd3-bd3c-4092-bdf8-f06be36ac7f8</t>
         </is>
       </c>
     </row>
@@ -1071,17 +1277,23 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3272217371-kit-5-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D13ad2994-f3b0-4318-aad8-c3eaba062d94</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3272217371-kit-5-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b400bd3-bd3c-4092-bdf8-f06be36ac7f8</t>
         </is>
       </c>
     </row>
@@ -1096,17 +1308,23 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2686829736-controle-de-longa-distncia-jfa-k1200-preto-jfa-1200-metros-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D13ad2994-f3b0-4318-aad8-c3eaba062d94</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2686829736-controle-de-longa-distncia-jfa-k1200-preto-jfa-1200-metros-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b400bd3-bd3c-4092-bdf8-f06be36ac7f8</t>
         </is>
       </c>
     </row>
@@ -1121,17 +1339,23 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3272206435-kit-10-controle-longa-distncia-jfa-acqua-1200-a-prova-de-a-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D13ad2994-f3b0-4318-aad8-c3eaba062d94</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3272206435-kit-10-controle-longa-distncia-jfa-acqua-1200-a-prova-de-a-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b400bd3-bd3c-4092-bdf8-f06be36ac7f8</t>
         </is>
       </c>
     </row>
@@ -1146,17 +1370,23 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3272255681-kit-6-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6ba8c40b-fa2d-47b2-9c2b-dea3c42931d5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3272255681-kit-6-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0e246b4f-f017-41fe-af7f-33241b43036f</t>
         </is>
       </c>
     </row>
@@ -1171,17 +1401,23 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3272217373-kit-7-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6ba8c40b-fa2d-47b2-9c2b-dea3c42931d5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3272217373-kit-7-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0e246b4f-f017-41fe-af7f-33241b43036f</t>
         </is>
       </c>
     </row>
@@ -1196,17 +1432,23 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3272240259-kit-8-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6ba8c40b-fa2d-47b2-9c2b-dea3c42931d5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3272240259-kit-8-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0e246b4f-f017-41fe-af7f-33241b43036f</t>
         </is>
       </c>
     </row>
@@ -1221,17 +1463,23 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3272273907-kit-9-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6ba8c40b-fa2d-47b2-9c2b-dea3c42931d5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3272273907-kit-9-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0e246b4f-f017-41fe-af7f-33241b43036f</t>
         </is>
       </c>
     </row>
@@ -1246,17 +1494,23 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2790499891-controle-longa-distncia-a-prova-de-agua-jfa-acqua-k1200-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6ba8c40b-fa2d-47b2-9c2b-dea3c42931d5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2790499891-controle-longa-distncia-a-prova-de-agua-jfa-acqua-k1200-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0e246b4f-f017-41fe-af7f-33241b43036f</t>
         </is>
       </c>
     </row>
@@ -1271,17 +1525,27 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2715908897-fonte-som-automotivo-carregador-jfa-bob-storm-200a-caixa-bob-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D6ba8c40b-fa2d-47b2-9c2b-dea3c42931d5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2715908897-fonte-som-automotivo-carregador-jfa-bob-storm-200a-caixa-bob-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0e246b4f-f017-41fe-af7f-33241b43036f</t>
         </is>
       </c>
     </row>
@@ -1296,17 +1560,27 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>FONTE 70A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2858496359-fonte-chaveada-carregador-automotivo-jfa-70a-storm-bivolt-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da79b86c0-d290-49c4-a1f6-a4def6646bbc</t>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2858496359-fonte-chaveada-carregador-automotivo-jfa-70a-storm-bivolt-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9c850f00-8985-4bfc-adc4-7e51d25284f9</t>
         </is>
       </c>
     </row>
@@ -1321,17 +1595,27 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3244366352-fonte-chaveada-para-carro-jfa-90a-bob-storm-slim-bivolt-top-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da79b86c0-d290-49c4-a1f6-a4def6646bbc</t>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3244366352-fonte-chaveada-para-carro-jfa-90a-bob-storm-slim-bivolt-top-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9c850f00-8985-4bfc-adc4-7e51d25284f9</t>
         </is>
       </c>
     </row>
@@ -1346,17 +1630,27 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 70A</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3185233716-fonte-chaveada-carregador-automotivo-jfa-70a-storm-bivolt-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da79b86c0-d290-49c4-a1f6-a4def6646bbc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3185233716-fonte-chaveada-carregador-automotivo-jfa-70a-storm-bivolt-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9c850f00-8985-4bfc-adc4-7e51d25284f9</t>
         </is>
       </c>
     </row>
@@ -1371,17 +1665,23 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2637072375-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D15%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da79b86c0-d290-49c4-a1f6-a4def6646bbc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2637072375-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9c850f00-8985-4bfc-adc4-7e51d25284f9</t>
         </is>
       </c>
     </row>
@@ -1396,17 +1696,23 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2637055462-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da79b86c0-d290-49c4-a1f6-a4def6646bbc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2637055462-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9c850f00-8985-4bfc-adc4-7e51d25284f9</t>
         </is>
       </c>
     </row>
@@ -1421,17 +1727,23 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2637018486-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da79b86c0-d290-49c4-a1f6-a4def6646bbc</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2637018486-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9c850f00-8985-4bfc-adc4-7e51d25284f9</t>
         </is>
       </c>
     </row>

--- a/dados/bassanparts.xlsx
+++ b/dados/bassanparts.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>preco</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>modelo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -476,13 +476,13 @@
           <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>94.90000000000001</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:728780866#searchVariation=MLB28557249&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=4829dc36-b9ce-49a5-ad3d-548b235a6812</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:728780866#searchVariation=MLB28557249&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=4d88d586-29f3-495d-928c-5b390bd7a4a9</t>
         </is>
       </c>
     </row>
@@ -507,13 +507,13 @@
           <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>84.15000000000001</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
@@ -528,25 +528,29 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:728780866#searchVariation=MLB27685629&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=4829dc36-b9ce-49a5-ad3d-548b235a6812</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:728780866#searchVariation=MLB27685629&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=4d88d586-29f3-495d-928c-5b390bd7a4a9</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>83.66</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>805.59</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>FULL</t>
@@ -554,34 +558,30 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:728780866#searchVariation=MLB27970249&amp;position=7&amp;search_layout=grid&amp;type=product&amp;tracking_id=4829dc36-b9ce-49a5-ad3d-548b235a6812</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:728780866#searchVariation=MLB21348561&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=4d88d586-29f3-495d-928c-5b390bd7a4a9</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>805.59</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
+          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>83.66</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>FULL</t>
@@ -589,12 +589,12 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:728780866#searchVariation=MLB21348561&amp;position=10&amp;search_layout=grid&amp;type=product&amp;tracking_id=4829dc36-b9ce-49a5-ad3d-548b235a6812</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:728780866#searchVariation=MLB27970249&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=4d88d586-29f3-495d-928c-5b390bd7a4a9</t>
         </is>
       </c>
     </row>
@@ -604,14 +604,14 @@
           <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>499.46</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -629,7 +629,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:728780866#searchVariation=MLB22144397&amp;position=13&amp;search_layout=grid&amp;type=product&amp;tracking_id=4829dc36-b9ce-49a5-ad3d-548b235a6812</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:728780866#searchVariation=MLB22144397&amp;position=12&amp;search_layout=grid&amp;type=product&amp;tracking_id=4d88d586-29f3-495d-928c-5b390bd7a4a9</t>
         </is>
       </c>
     </row>
@@ -639,14 +639,14 @@
           <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>443.07</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -664,7 +664,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:728780866#searchVariation=MLB21562641&amp;position=14&amp;search_layout=grid&amp;type=product&amp;tracking_id=4829dc36-b9ce-49a5-ad3d-548b235a6812</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:728780866#searchVariation=MLB21562641&amp;position=13&amp;search_layout=grid&amp;type=product&amp;tracking_id=4d88d586-29f3-495d-928c-5b390bd7a4a9</t>
         </is>
       </c>
     </row>
@@ -674,14 +674,14 @@
           <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>624.33</v>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -699,7 +699,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:728780866#searchVariation=MLB24834408&amp;position=17&amp;search_layout=grid&amp;type=product&amp;tracking_id=4829dc36-b9ce-49a5-ad3d-548b235a6812</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:728780866#searchVariation=MLB24834408&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=4d88d586-29f3-495d-928c-5b390bd7a4a9</t>
         </is>
       </c>
     </row>
@@ -709,13 +709,13 @@
           <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>83.2</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:728780866#searchVariation=MLB28687615&amp;position=11&amp;search_layout=grid&amp;type=product&amp;tracking_id=4829dc36-b9ce-49a5-ad3d-548b235a6812</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:728780866#searchVariation=MLB28687615&amp;position=17&amp;search_layout=grid&amp;type=product&amp;tracking_id=4d88d586-29f3-495d-928c-5b390bd7a4a9</t>
         </is>
       </c>
     </row>
@@ -740,14 +740,14 @@
           <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>473.28</v>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -755,7 +755,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:728780866#searchVariation=MLB21320712&amp;position=18&amp;search_layout=grid&amp;type=product&amp;tracking_id=4829dc36-b9ce-49a5-ad3d-548b235a6812</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:728780866#searchVariation=MLB21320712&amp;position=18&amp;search_layout=grid&amp;type=product&amp;tracking_id=4d88d586-29f3-495d-928c-5b390bd7a4a9</t>
         </is>
       </c>
     </row>
@@ -775,13 +775,13 @@
           <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>61.62</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
@@ -796,7 +796,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:728780866#searchVariation=MLB32364344&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=4829dc36-b9ce-49a5-ad3d-548b235a6812</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:728780866#searchVariation=MLB32364344&amp;position=20&amp;search_layout=grid&amp;type=product&amp;tracking_id=4d88d586-29f3-495d-928c-5b390bd7a4a9</t>
         </is>
       </c>
     </row>
@@ -806,13 +806,13 @@
           <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
         <v>58.42</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
@@ -827,7 +827,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:728780866#searchVariation=MLB34210379&amp;position=42&amp;search_layout=grid&amp;type=product&amp;tracking_id=4829dc36-b9ce-49a5-ad3d-548b235a6812</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:728780866#searchVariation=MLB34210379&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=4d88d586-29f3-495d-928c-5b390bd7a4a9</t>
         </is>
       </c>
     </row>
@@ -837,14 +837,14 @@
           <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
         <v>493.42</v>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>FONTE 70A</t>
-        </is>
-      </c>
       <c r="D13" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -852,7 +852,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -862,7 +862,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:728780866#searchVariation=MLB21455208&amp;position=45&amp;search_layout=grid&amp;type=product&amp;tracking_id=4829dc36-b9ce-49a5-ad3d-548b235a6812</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:728780866#searchVariation=MLB21455208&amp;position=37&amp;search_layout=grid&amp;type=product&amp;tracking_id=4d88d586-29f3-495d-928c-5b390bd7a4a9</t>
         </is>
       </c>
     </row>
@@ -872,14 +872,14 @@
           <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v Cor Preto</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
         <v>433</v>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>FONTE 40A</t>
-        </is>
-      </c>
       <c r="D14" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -887,7 +887,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -897,7 +897,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:728780866#searchVariation=MLB22569833&amp;position=48&amp;search_layout=grid&amp;type=product&amp;tracking_id=4829dc36-b9ce-49a5-ad3d-548b235a6812</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:728780866#searchVariation=MLB22569833&amp;position=46&amp;search_layout=grid&amp;type=product&amp;tracking_id=4d88d586-29f3-495d-928c-5b390bd7a4a9</t>
         </is>
       </c>
     </row>
@@ -907,14 +907,14 @@
           <t>Fonte Carregador Bob Storm 200a Slim Bivolt Automático - Jfa Cor Preto</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
         <v>731.39</v>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
       <c r="D15" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -932,7 +932,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-bob-storm-200a-slim-bivolt-automatico-jfa-cor-preto/p/MLB27156459?pdp_filters=seller_id:728780866#searchVariation=MLB27156459&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=d24f69b9-856e-4df6-8c7b-94a40fe65e43</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-bob-storm-200a-slim-bivolt-automatico-jfa-cor-preto/p/MLB27156459?pdp_filters=seller_id:728780866#searchVariation=MLB27156459&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=3b134bd9-cce2-418e-9da5-1de3ef490079</t>
         </is>
       </c>
     </row>
@@ -942,17 +942,17 @@
           <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>423.99</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>FONTE 40A</t>
-        </is>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>402.79</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -967,7 +967,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:728780866#searchVariation=MLB21621306&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=d24f69b9-856e-4df6-8c7b-94a40fe65e43</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:728780866#searchVariation=MLB21621306&amp;position=19&amp;search_layout=grid&amp;type=product&amp;tracking_id=3b134bd9-cce2-418e-9da5-1de3ef490079</t>
         </is>
       </c>
     </row>
@@ -977,17 +977,17 @@
           <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim Cor Preto</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>847.99</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>805.59</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:728780866#searchVariation=MLB26091477&amp;position=14&amp;search_layout=grid&amp;type=product&amp;tracking_id=d24f69b9-856e-4df6-8c7b-94a40fe65e43</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:728780866#searchVariation=MLB26091477&amp;position=7&amp;search_layout=grid&amp;type=product&amp;tracking_id=3b134bd9-cce2-418e-9da5-1de3ef490079</t>
         </is>
       </c>
     </row>
@@ -1012,14 +1012,14 @@
           <t>Fonte Automotiva Digital Jfa 60a Slim Bivolt Automatica Cor Preto</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
         <v>466.39</v>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
-      </c>
       <c r="D18" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -1037,7 +1037,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-digital-jfa-60a-slim-bivolt-automatica-cor-preto/p/MLB21630472?pdp_filters=seller_id:728780866#searchVariation=MLB21630472&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=d24f69b9-856e-4df6-8c7b-94a40fe65e43</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-digital-jfa-60a-slim-bivolt-automatica-cor-preto/p/MLB21630472?pdp_filters=seller_id:728780866#searchVariation=MLB21630472&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=3b134bd9-cce2-418e-9da5-1de3ef490079</t>
         </is>
       </c>
     </row>
@@ -1047,13 +1047,13 @@
           <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
         <v>83.2</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
@@ -1068,7 +1068,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:728780866#searchVariation=MLB28722231&amp;position=26&amp;search_layout=grid&amp;type=product&amp;tracking_id=d24f69b9-856e-4df6-8c7b-94a40fe65e43</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:728780866#searchVariation=MLB28722231&amp;position=30&amp;search_layout=grid&amp;type=product&amp;tracking_id=3b134bd9-cce2-418e-9da5-1de3ef490079</t>
         </is>
       </c>
     </row>
@@ -1078,13 +1078,13 @@
           <t>Controle Longa Distância Jfa Acqua 1200 A Prova De Agua Aqua</t>
         </is>
       </c>
-      <c r="B20" t="n">
-        <v>85</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>83.3</v>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2715926126-controle-longa-distncia-jfa-acqua-1200-a-prova-de-agua-aqua-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd24f69b9-856e-4df6-8c7b-94a40fe65e43</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2715926126-controle-longa-distncia-jfa-acqua-1200-a-prova-de-agua-aqua-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b134bd9-cce2-418e-9da5-1de3ef490079</t>
         </is>
       </c>
     </row>
@@ -1109,14 +1109,14 @@
           <t>Fonte Som Automotivo Carregador Jfa Bob Storm 200a Caixa Bob</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
         <v>694.8200000000001</v>
       </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
       <c r="D21" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1134,23 +1134,23 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2715902228-fonte-som-automotivo-carregador-jfa-bob-storm-200a-caixa-bob-_JM#position%3D45%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd24f69b9-856e-4df6-8c7b-94a40fe65e43</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2715902228-fonte-som-automotivo-carregador-jfa-bob-storm-200a-caixa-bob-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b134bd9-cce2-418e-9da5-1de3ef490079</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 60a Jfa Fonte Jfa Sistema Inteligente Sci</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>498.19</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>FONTE 70A LITE</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>501.52</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1169,25 +1169,29 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3185302759-fonte-automotiva-60a-jfa-fonte-jfa-sistema-inteligente-sci-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dd24f69b9-856e-4df6-8c7b-94a40fe65e43</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3587956733-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcc24605a-c5a2-4077-8255-1dc8b1e23664</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>501.52</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+          <t>Fonte Automotiva 60a Jfa Fonte Jfa Sistema Inteligente Sci</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>498.19</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1200,7 +1204,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3587956733-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b400bd3-bd3c-4092-bdf8-f06be36ac7f8</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3185302759-fonte-automotiva-60a-jfa-fonte-jfa-sistema-inteligente-sci-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcc24605a-c5a2-4077-8255-1dc8b1e23664</t>
         </is>
       </c>
     </row>
@@ -1210,18 +1214,18 @@
           <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
         <v>77.31999999999999</v>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1231,7 +1235,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2117294319-controle-remoto-universal-longa-distncia-jfa-k1200-vermelho-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b400bd3-bd3c-4092-bdf8-f06be36ac7f8</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2117294319-controle-remoto-universal-longa-distncia-jfa-k1200-vermelho-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcc24605a-c5a2-4077-8255-1dc8b1e23664</t>
         </is>
       </c>
     </row>
@@ -1241,13 +1245,13 @@
           <t>Controle Longa Distância Jfa Acqua K1200 Prova De Agua Aqua</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
         <v>78.90000000000001</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
@@ -1262,7 +1266,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2790537310-controle-longa-distncia-jfa-acqua-k1200-prova-de-agua-aqua-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b400bd3-bd3c-4092-bdf8-f06be36ac7f8</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2790537310-controle-longa-distncia-jfa-acqua-k1200-prova-de-agua-aqua-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcc24605a-c5a2-4077-8255-1dc8b1e23664</t>
         </is>
       </c>
     </row>
@@ -1272,13 +1276,13 @@
           <t>Kit 5 Controle Longa Distância Jfa Acqua 1200 A Prova De Ag</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
         <v>390.99</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
@@ -1293,7 +1297,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3272217371-kit-5-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b400bd3-bd3c-4092-bdf8-f06be36ac7f8</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3272217371-kit-5-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcc24605a-c5a2-4077-8255-1dc8b1e23664</t>
         </is>
       </c>
     </row>
@@ -1303,13 +1307,13 @@
           <t xml:space="preserve">Controle De Longa Distância Jfa K1200 Preto Jfa 1200 Metros </t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
         <v>64.86</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
@@ -1324,7 +1328,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2686829736-controle-de-longa-distncia-jfa-k1200-preto-jfa-1200-metros-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b400bd3-bd3c-4092-bdf8-f06be36ac7f8</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2686829736-controle-de-longa-distncia-jfa-k1200-preto-jfa-1200-metros-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcc24605a-c5a2-4077-8255-1dc8b1e23664</t>
         </is>
       </c>
     </row>
@@ -1334,13 +1338,13 @@
           <t>Kit 10 Controle Longa Distância Jfa Acqua 1200 A Prova De A</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
         <v>781.99</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
@@ -1355,7 +1359,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3272206435-kit-10-controle-longa-distncia-jfa-acqua-1200-a-prova-de-a-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b400bd3-bd3c-4092-bdf8-f06be36ac7f8</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3272206435-kit-10-controle-longa-distncia-jfa-acqua-1200-a-prova-de-a-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcc24605a-c5a2-4077-8255-1dc8b1e23664</t>
         </is>
       </c>
     </row>
@@ -1365,13 +1369,13 @@
           <t>Kit 6 Controle Longa Distância Jfa Acqua 1200 A Prova De Ag</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
         <v>468.99</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
@@ -1386,7 +1390,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3272255681-kit-6-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0e246b4f-f017-41fe-af7f-33241b43036f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3272255681-kit-6-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcc24605a-c5a2-4077-8255-1dc8b1e23664</t>
         </is>
       </c>
     </row>
@@ -1396,13 +1400,13 @@
           <t>Kit 7 Controle Longa Distância Jfa Acqua 1200 A Prova De Ag</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
         <v>546.99</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
@@ -1417,7 +1421,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3272217373-kit-7-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0e246b4f-f017-41fe-af7f-33241b43036f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3272217373-kit-7-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcc24605a-c5a2-4077-8255-1dc8b1e23664</t>
         </is>
       </c>
     </row>
@@ -1427,13 +1431,13 @@
           <t>Kit 8 Controle Longa Distância Jfa Acqua 1200 A Prova De Ag</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
         <v>624.99</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
@@ -1448,7 +1452,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3272240259-kit-8-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D6%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0e246b4f-f017-41fe-af7f-33241b43036f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3272240259-kit-8-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcc24605a-c5a2-4077-8255-1dc8b1e23664</t>
         </is>
       </c>
     </row>
@@ -1458,13 +1462,13 @@
           <t>Kit 9 Controle Longa Distância Jfa Acqua 1200 A Prova De Ag</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
         <v>702.99</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
@@ -1479,7 +1483,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3272273907-kit-9-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0e246b4f-f017-41fe-af7f-33241b43036f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3272273907-kit-9-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0f7baf4f-cf65-4247-9ffc-b3593ad38589</t>
         </is>
       </c>
     </row>
@@ -1489,13 +1493,13 @@
           <t>Controle Longa Distância A Prova De Agua Jfa Acqua K1200</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
         <v>78.90000000000001</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
@@ -1510,7 +1514,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2790499891-controle-longa-distncia-a-prova-de-agua-jfa-acqua-k1200-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0e246b4f-f017-41fe-af7f-33241b43036f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2790499891-controle-longa-distncia-a-prova-de-agua-jfa-acqua-k1200-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0f7baf4f-cf65-4247-9ffc-b3593ad38589</t>
         </is>
       </c>
     </row>
@@ -1520,17 +1524,17 @@
           <t>Fonte Som Automotivo Carregador Jfa Bob Storm 200a Caixa Bob</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>657.1900000000001</v>
-      </c>
-      <c r="C34" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>FONTE 200 BOB</t>
         </is>
       </c>
+      <c r="C34" t="n">
+        <v>624.33</v>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1545,7 +1549,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2715908897-fonte-som-automotivo-carregador-jfa-bob-storm-200a-caixa-bob-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0e246b4f-f017-41fe-af7f-33241b43036f</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2715908897-fonte-som-automotivo-carregador-jfa-bob-storm-200a-caixa-bob-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0f7baf4f-cf65-4247-9ffc-b3593ad38589</t>
         </is>
       </c>
     </row>
@@ -1555,14 +1559,14 @@
           <t>Fonte Chaveada Carregador Automotivo Jfa 70a Storm Bivolt</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
         <v>523.63</v>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>FONTE 70A</t>
-        </is>
-      </c>
       <c r="D35" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1580,7 +1584,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2858496359-fonte-chaveada-carregador-automotivo-jfa-70a-storm-bivolt-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9c850f00-8985-4bfc-adc4-7e51d25284f9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2858496359-fonte-chaveada-carregador-automotivo-jfa-70a-storm-bivolt-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0f7baf4f-cf65-4247-9ffc-b3593ad38589</t>
         </is>
       </c>
     </row>
@@ -1590,14 +1594,14 @@
           <t>Fonte Chaveada Para Carro Jfa 90a Bob Storm Slim Bivolt Top</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
         <v>422.93</v>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
       <c r="D36" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -1615,7 +1619,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3244366352-fonte-chaveada-para-carro-jfa-90a-bob-storm-slim-bivolt-top-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9c850f00-8985-4bfc-adc4-7e51d25284f9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3244366352-fonte-chaveada-para-carro-jfa-90a-bob-storm-slim-bivolt-top-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0f7baf4f-cf65-4247-9ffc-b3593ad38589</t>
         </is>
       </c>
     </row>
@@ -1625,14 +1629,14 @@
           <t>Fonte Chaveada Carregador Automotivo Jfa 70a Storm Bivolt</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
         <v>519.39</v>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>FONTE 70A</t>
-        </is>
-      </c>
       <c r="D37" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -1650,7 +1654,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3185233716-fonte-chaveada-carregador-automotivo-jfa-70a-storm-bivolt-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9c850f00-8985-4bfc-adc4-7e51d25284f9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3185233716-fonte-chaveada-carregador-automotivo-jfa-70a-storm-bivolt-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0f7baf4f-cf65-4247-9ffc-b3593ad38589</t>
         </is>
       </c>
     </row>
@@ -1660,13 +1664,13 @@
           <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
         <v>64.86</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
@@ -1681,7 +1685,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2637072375-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D14%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9c850f00-8985-4bfc-adc4-7e51d25284f9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2637072375-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1ba719d5-6606-4adb-85e2-8f3788dc5861</t>
         </is>
       </c>
     </row>
@@ -1691,13 +1695,13 @@
           <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
         <v>64.86</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
@@ -1712,7 +1716,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2637055462-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D16%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9c850f00-8985-4bfc-adc4-7e51d25284f9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2637055462-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1ba719d5-6606-4adb-85e2-8f3788dc5861</t>
         </is>
       </c>
     </row>
@@ -1722,13 +1726,13 @@
           <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
         <v>84.90000000000001</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
@@ -1743,7 +1747,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2637018486-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D9c850f00-8985-4bfc-adc4-7e51d25284f9</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2637018486-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1ba719d5-6606-4adb-85e2-8f3788dc5861</t>
         </is>
       </c>
     </row>

--- a/dados/bassanparts.xlsx
+++ b/dados/bassanparts.xlsx
@@ -478,13 +478,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>CONTROLE WR</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>94.90000000000001</v>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>FULL</t>
@@ -497,7 +501,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:728780866#searchVariation=MLB28557249&amp;position=5&amp;search_layout=grid&amp;type=product&amp;tracking_id=4d88d586-29f3-495d-928c-5b390bd7a4a9</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:728780866#searchVariation=MLB28557249&amp;position=12&amp;search_layout=grid&amp;type=product&amp;tracking_id=9c7e6b4b-710a-4d22-af2b-3a1fbfe1a7e2</t>
         </is>
       </c>
     </row>
@@ -509,13 +513,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>84.15000000000001</v>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>FULL</t>
@@ -528,27 +536,27 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:728780866#searchVariation=MLB27685629&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=4d88d586-29f3-495d-928c-5b390bd7a4a9</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:728780866#searchVariation=MLB27685629&amp;position=1&amp;search_layout=grid&amp;type=product&amp;tracking_id=9c7e6b4b-710a-4d22-af2b-3a1fbfe1a7e2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>805.59</v>
+        <v>83.66</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -558,30 +566,34 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:728780866#searchVariation=MLB21348561&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=4d88d586-29f3-495d-928c-5b390bd7a4a9</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:728780866#searchVariation=MLB27970249&amp;position=18&amp;search_layout=grid&amp;type=product&amp;tracking_id=9c7e6b4b-710a-4d22-af2b-3a1fbfe1a7e2</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>83.66</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>805.59</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>FULL</t>
@@ -589,32 +601,32 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:728780866#searchVariation=MLB27970249&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=4d88d586-29f3-495d-928c-5b390bd7a4a9</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:728780866#searchVariation=MLB21348561&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=9c7e6b4b-710a-4d22-af2b-3a1fbfe1a7e2</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>499.46</v>
+        <v>657.1900000000001</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -629,23 +641,23 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:728780866#searchVariation=MLB22144397&amp;position=12&amp;search_layout=grid&amp;type=product&amp;tracking_id=4d88d586-29f3-495d-928c-5b390bd7a4a9</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:728780866#searchVariation=MLB24834408&amp;position=14&amp;search_layout=grid&amp;type=product&amp;tracking_id=9c7e6b4b-710a-4d22-af2b-3a1fbfe1a7e2</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>443.07</v>
+        <v>499.46</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -659,28 +671,28 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:728780866#searchVariation=MLB21562641&amp;position=13&amp;search_layout=grid&amp;type=product&amp;tracking_id=4d88d586-29f3-495d-928c-5b390bd7a4a9</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:728780866#searchVariation=MLB22144397&amp;position=13&amp;search_layout=grid&amp;type=product&amp;tracking_id=9c7e6b4b-710a-4d22-af2b-3a1fbfe1a7e2</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>624.33</v>
+        <v>473.28</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -694,12 +706,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:728780866#searchVariation=MLB24834408&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=4d88d586-29f3-495d-928c-5b390bd7a4a9</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:728780866#searchVariation=MLB21320712&amp;position=10&amp;search_layout=grid&amp;type=product&amp;tracking_id=9c7e6b4b-710a-4d22-af2b-3a1fbfe1a7e2</t>
         </is>
       </c>
     </row>
@@ -711,13 +723,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>83.2</v>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>FULL</t>
@@ -730,23 +746,23 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:728780866#searchVariation=MLB28687615&amp;position=17&amp;search_layout=grid&amp;type=product&amp;tracking_id=4d88d586-29f3-495d-928c-5b390bd7a4a9</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:728780866#searchVariation=MLB28687615&amp;position=16&amp;search_layout=grid&amp;type=product&amp;tracking_id=9c7e6b4b-710a-4d22-af2b-3a1fbfe1a7e2</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>473.28</v>
+        <v>443.07</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -755,7 +771,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -765,7 +781,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:728780866#searchVariation=MLB21320712&amp;position=18&amp;search_layout=grid&amp;type=product&amp;tracking_id=4d88d586-29f3-495d-928c-5b390bd7a4a9</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:728780866#searchVariation=MLB21562641&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=9c7e6b4b-710a-4d22-af2b-3a1fbfe1a7e2</t>
         </is>
       </c>
     </row>
@@ -777,13 +793,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>61.62</v>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>NA</t>
@@ -796,28 +816,32 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:728780866#searchVariation=MLB32364344&amp;position=20&amp;search_layout=grid&amp;type=product&amp;tracking_id=4d88d586-29f3-495d-928c-5b390bd7a4a9</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:728780866#searchVariation=MLB32364344&amp;position=20&amp;search_layout=grid&amp;type=product&amp;tracking_id=9c7e6b4b-710a-4d22-af2b-3a1fbfe1a7e2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>58.42</v>
-      </c>
-      <c r="D12" t="inlineStr"/>
+        <v>493.42</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -827,27 +851,27 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:728780866#searchVariation=MLB34210379&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=4d88d586-29f3-495d-928c-5b390bd7a4a9</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:728780866#searchVariation=MLB21455208&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=9c7e6b4b-710a-4d22-af2b-3a1fbfe1a7e2</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>493.42</v>
+        <v>58.42</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -862,7 +886,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:728780866#searchVariation=MLB21455208&amp;position=37&amp;search_layout=grid&amp;type=product&amp;tracking_id=4d88d586-29f3-495d-928c-5b390bd7a4a9</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:728780866#searchVariation=MLB34210379&amp;position=37&amp;search_layout=grid&amp;type=product&amp;tracking_id=9c7e6b4b-710a-4d22-af2b-3a1fbfe1a7e2</t>
         </is>
       </c>
     </row>
@@ -887,7 +911,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -897,7 +921,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:728780866#searchVariation=MLB22569833&amp;position=46&amp;search_layout=grid&amp;type=product&amp;tracking_id=4d88d586-29f3-495d-928c-5b390bd7a4a9</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:728780866#searchVariation=MLB22569833&amp;position=46&amp;search_layout=grid&amp;type=product&amp;tracking_id=9c7e6b4b-710a-4d22-af2b-3a1fbfe1a7e2</t>
         </is>
       </c>
     </row>
@@ -932,7 +956,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-bob-storm-200a-slim-bivolt-automatico-jfa-cor-preto/p/MLB27156459?pdp_filters=seller_id:728780866#searchVariation=MLB27156459&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=3b134bd9-cce2-418e-9da5-1de3ef490079</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-bob-storm-200a-slim-bivolt-automatico-jfa-cor-preto/p/MLB27156459?pdp_filters=seller_id:728780866#searchVariation=MLB27156459&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=dab37b94-db7c-4210-b4c0-bee2da8484f5</t>
         </is>
       </c>
     </row>
@@ -967,7 +991,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:728780866#searchVariation=MLB21621306&amp;position=19&amp;search_layout=grid&amp;type=product&amp;tracking_id=3b134bd9-cce2-418e-9da5-1de3ef490079</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:728780866#searchVariation=MLB21621306&amp;position=7&amp;search_layout=grid&amp;type=product&amp;tracking_id=dab37b94-db7c-4210-b4c0-bee2da8484f5</t>
         </is>
       </c>
     </row>
@@ -1002,7 +1026,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:728780866#searchVariation=MLB26091477&amp;position=7&amp;search_layout=grid&amp;type=product&amp;tracking_id=3b134bd9-cce2-418e-9da5-1de3ef490079</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:728780866#searchVariation=MLB26091477&amp;position=16&amp;search_layout=grid&amp;type=product&amp;tracking_id=dab37b94-db7c-4210-b4c0-bee2da8484f5</t>
         </is>
       </c>
     </row>
@@ -1037,7 +1061,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-digital-jfa-60a-slim-bivolt-automatica-cor-preto/p/MLB21630472?pdp_filters=seller_id:728780866#searchVariation=MLB21630472&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=3b134bd9-cce2-418e-9da5-1de3ef490079</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-digital-jfa-60a-slim-bivolt-automatica-cor-preto/p/MLB21630472?pdp_filters=seller_id:728780866#searchVariation=MLB21630472&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=dab37b94-db7c-4210-b4c0-bee2da8484f5</t>
         </is>
       </c>
     </row>
@@ -1049,13 +1073,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C19" t="n">
         <v>83.2</v>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>FULL</t>
@@ -1068,7 +1096,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:728780866#searchVariation=MLB28722231&amp;position=30&amp;search_layout=grid&amp;type=product&amp;tracking_id=3b134bd9-cce2-418e-9da5-1de3ef490079</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:728780866#searchVariation=MLB28722231&amp;position=35&amp;search_layout=grid&amp;type=product&amp;tracking_id=dab37b94-db7c-4210-b4c0-bee2da8484f5</t>
         </is>
       </c>
     </row>
@@ -1080,13 +1108,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>83.3</v>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>FULL</t>
@@ -1099,7 +1131,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2715926126-controle-longa-distncia-jfa-acqua-1200-a-prova-de-agua-aqua-_JM#position%3D37%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b134bd9-cce2-418e-9da5-1de3ef490079</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2715926126-controle-longa-distncia-jfa-acqua-1200-a-prova-de-agua-aqua-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddab37b94-db7c-4210-b4c0-bee2da8484f5</t>
         </is>
       </c>
     </row>
@@ -1124,7 +1156,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1134,7 +1166,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2715902228-fonte-som-automotivo-carregador-jfa-bob-storm-200a-caixa-bob-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D3b134bd9-cce2-418e-9da5-1de3ef490079</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2715902228-fonte-som-automotivo-carregador-jfa-bob-storm-200a-caixa-bob-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddab37b94-db7c-4210-b4c0-bee2da8484f5</t>
         </is>
       </c>
     </row>
@@ -1169,7 +1201,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3587956733-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcc24605a-c5a2-4077-8255-1dc8b1e23664</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3587956733-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da7cb2104-da21-4d2c-8bb3-661963320d7e</t>
         </is>
       </c>
     </row>
@@ -1204,7 +1236,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3185302759-fonte-automotiva-60a-jfa-fonte-jfa-sistema-inteligente-sci-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcc24605a-c5a2-4077-8255-1dc8b1e23664</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3185302759-fonte-automotiva-60a-jfa-fonte-jfa-sistema-inteligente-sci-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da7cb2104-da21-4d2c-8bb3-661963320d7e</t>
         </is>
       </c>
     </row>
@@ -1216,16 +1248,20 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>77.31999999999999</v>
       </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1235,7 +1271,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2117294319-controle-remoto-universal-longa-distncia-jfa-k1200-vermelho-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcc24605a-c5a2-4077-8255-1dc8b1e23664</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2117294319-controle-remoto-universal-longa-distncia-jfa-k1200-vermelho-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da7cb2104-da21-4d2c-8bb3-661963320d7e</t>
         </is>
       </c>
     </row>
@@ -1247,13 +1283,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>78.90000000000001</v>
       </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1266,7 +1306,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2790537310-controle-longa-distncia-jfa-acqua-k1200-prova-de-agua-aqua-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcc24605a-c5a2-4077-8255-1dc8b1e23664</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2790537310-controle-longa-distncia-jfa-acqua-k1200-prova-de-agua-aqua-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da7cb2104-da21-4d2c-8bb3-661963320d7e</t>
         </is>
       </c>
     </row>
@@ -1278,13 +1318,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>390.99</v>
       </c>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1297,7 +1341,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3272217371-kit-5-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcc24605a-c5a2-4077-8255-1dc8b1e23664</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3272217371-kit-5-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da7cb2104-da21-4d2c-8bb3-661963320d7e</t>
         </is>
       </c>
     </row>
@@ -1309,13 +1353,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>64.86</v>
       </c>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1328,7 +1376,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2686829736-controle-de-longa-distncia-jfa-k1200-preto-jfa-1200-metros-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcc24605a-c5a2-4077-8255-1dc8b1e23664</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2686829736-controle-de-longa-distncia-jfa-k1200-preto-jfa-1200-metros-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da7cb2104-da21-4d2c-8bb3-661963320d7e</t>
         </is>
       </c>
     </row>
@@ -1340,13 +1388,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>781.99</v>
       </c>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1359,7 +1411,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3272206435-kit-10-controle-longa-distncia-jfa-acqua-1200-a-prova-de-a-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcc24605a-c5a2-4077-8255-1dc8b1e23664</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3272206435-kit-10-controle-longa-distncia-jfa-acqua-1200-a-prova-de-a-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da7cb2104-da21-4d2c-8bb3-661963320d7e</t>
         </is>
       </c>
     </row>
@@ -1371,13 +1423,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C29" t="n">
         <v>468.99</v>
       </c>
-      <c r="D29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1390,7 +1446,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3272255681-kit-6-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcc24605a-c5a2-4077-8255-1dc8b1e23664</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3272255681-kit-6-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D809b10f9-eed5-4140-a7af-3403022bfed7</t>
         </is>
       </c>
     </row>
@@ -1402,13 +1458,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>546.99</v>
       </c>
-      <c r="D30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1421,7 +1481,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3272217373-kit-7-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcc24605a-c5a2-4077-8255-1dc8b1e23664</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3272217373-kit-7-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D809b10f9-eed5-4140-a7af-3403022bfed7</t>
         </is>
       </c>
     </row>
@@ -1433,13 +1493,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>624.99</v>
       </c>
-      <c r="D31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1452,7 +1516,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3272240259-kit-8-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Dcc24605a-c5a2-4077-8255-1dc8b1e23664</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3272240259-kit-8-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D809b10f9-eed5-4140-a7af-3403022bfed7</t>
         </is>
       </c>
     </row>
@@ -1464,13 +1528,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C32" t="n">
         <v>702.99</v>
       </c>
-      <c r="D32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1483,7 +1551,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3272273907-kit-9-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0f7baf4f-cf65-4247-9ffc-b3593ad38589</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3272273907-kit-9-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D809b10f9-eed5-4140-a7af-3403022bfed7</t>
         </is>
       </c>
     </row>
@@ -1495,13 +1563,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C33" t="n">
         <v>78.90000000000001</v>
       </c>
-      <c r="D33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1514,23 +1586,23 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2790499891-controle-longa-distncia-a-prova-de-agua-jfa-acqua-k1200-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0f7baf4f-cf65-4247-9ffc-b3593ad38589</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2790499891-controle-longa-distncia-a-prova-de-agua-jfa-acqua-k1200-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D809b10f9-eed5-4140-a7af-3403022bfed7</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Fonte Som Automotivo Carregador Jfa Bob Storm 200a Caixa Bob</t>
+          <t>Fonte Chaveada Carregador Automotivo Jfa 70a Storm Bivolt</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>624.33</v>
+        <v>523.63</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1539,33 +1611,33 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2715908897-fonte-som-automotivo-carregador-jfa-bob-storm-200a-caixa-bob-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0f7baf4f-cf65-4247-9ffc-b3593ad38589</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2858496359-fonte-chaveada-carregador-automotivo-jfa-70a-storm-bivolt-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D809b10f9-eed5-4140-a7af-3403022bfed7</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Fonte Chaveada Carregador Automotivo Jfa 70a Storm Bivolt</t>
+          <t>Fonte Som Automotivo Carregador Jfa Bob Storm 200a Caixa Bob</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>523.63</v>
+        <v>624.33</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1574,42 +1646,42 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2858496359-fonte-chaveada-carregador-automotivo-jfa-70a-storm-bivolt-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0f7baf4f-cf65-4247-9ffc-b3593ad38589</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2715908897-fonte-som-automotivo-carregador-jfa-bob-storm-200a-caixa-bob-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D809b10f9-eed5-4140-a7af-3403022bfed7</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Fonte Chaveada Para Carro Jfa 90a Bob Storm Slim Bivolt Top</t>
+          <t>Fonte Chaveada Carregador Automotivo Jfa 70a Storm Bivolt</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>422.93</v>
+        <v>519.39</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1619,32 +1691,32 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3244366352-fonte-chaveada-para-carro-jfa-90a-bob-storm-slim-bivolt-top-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0f7baf4f-cf65-4247-9ffc-b3593ad38589</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3185233716-fonte-chaveada-carregador-automotivo-jfa-70a-storm-bivolt-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D809b10f9-eed5-4140-a7af-3403022bfed7</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Fonte Chaveada Carregador Automotivo Jfa 70a Storm Bivolt</t>
+          <t>Fonte Chaveada Para Carro Jfa 90a Bob Storm Slim Bivolt Top</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>519.39</v>
+        <v>422.93</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1654,7 +1726,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3185233716-fonte-chaveada-carregador-automotivo-jfa-70a-storm-bivolt-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D0f7baf4f-cf65-4247-9ffc-b3593ad38589</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3244366352-fonte-chaveada-para-carro-jfa-90a-bob-storm-slim-bivolt-top-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D809b10f9-eed5-4140-a7af-3403022bfed7</t>
         </is>
       </c>
     </row>
@@ -1666,13 +1738,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>64.86</v>
       </c>
-      <c r="D38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1685,7 +1761,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2637072375-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1ba719d5-6606-4adb-85e2-8f3788dc5861</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2637072375-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D540518b1-8f12-4b25-a844-76dcb09f0f1f</t>
         </is>
       </c>
     </row>
@@ -1697,13 +1773,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C39" t="n">
         <v>64.86</v>
       </c>
-      <c r="D39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1716,7 +1796,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2637055462-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D7%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1ba719d5-6606-4adb-85e2-8f3788dc5861</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2637055462-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D540518b1-8f12-4b25-a844-76dcb09f0f1f</t>
         </is>
       </c>
     </row>
@@ -1728,13 +1808,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C40" t="n">
         <v>84.90000000000001</v>
       </c>
-      <c r="D40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1747,7 +1831,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2637018486-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1ba719d5-6606-4adb-85e2-8f3788dc5861</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2637018486-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D540518b1-8f12-4b25-a844-76dcb09f0f1f</t>
         </is>
       </c>
     </row>

--- a/dados/bassanparts.xlsx
+++ b/dados/bassanparts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,35 +436,45 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>loja</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>nome</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>modelo</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>preco</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>politica</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>full</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -473,1365 +483,1665 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>bassanparts</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>CONTROLE WR</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="E2" t="n">
         <v>94.90000000000001</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:728780866#searchVariation=MLB28557249&amp;position=12&amp;search_layout=grid&amp;type=product&amp;tracking_id=9c7e6b4b-710a-4d22-af2b-3a1fbfe1a7e2</t>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:728780866#searchVariation=MLB28557249&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=51badc43-4e17-42d3-bc45-1e6c5a157575</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>bassanparts</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>ACQUA</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>84.15000000000001</v>
-      </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="n">
+        <v>84</v>
+      </c>
+      <c r="F3" t="inlineStr">
         <is>
           <t>Baixo</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:728780866#searchVariation=MLB27685629&amp;position=1&amp;search_layout=grid&amp;type=product&amp;tracking_id=9c7e6b4b-710a-4d22-af2b-3a1fbfe1a7e2</t>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:728780866#searchVariation=MLB27685629&amp;position=7&amp;search_layout=grid&amp;type=product&amp;tracking_id=51badc43-4e17-42d3-bc45-1e6c5a157575</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>bassanparts</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>K600</t>
         </is>
       </c>
-      <c r="C4" t="n">
-        <v>83.66</v>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="n">
+        <v>89</v>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:728780866#searchVariation=MLB27970249&amp;position=18&amp;search_layout=grid&amp;type=product&amp;tracking_id=9c7e6b4b-710a-4d22-af2b-3a1fbfe1a7e2</t>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:728780866#searchVariation=MLB27970249&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=51badc43-4e17-42d3-bc45-1e6c5a157575</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>805.59</v>
+          <t>bassanparts</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+        </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>473.28</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:728780866#searchVariation=MLB21348561&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=9c7e6b4b-710a-4d22-af2b-3a1fbfe1a7e2</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:728780866#searchVariation=MLB21320712&amp;position=10&amp;search_layout=grid&amp;type=product&amp;tracking_id=51badc43-4e17-42d3-bc45-1e6c5a157575</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>657.1900000000001</v>
+          <t>bassanparts</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>466.39</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:728780866#searchVariation=MLB24834408&amp;position=14&amp;search_layout=grid&amp;type=product&amp;tracking_id=9c7e6b4b-710a-4d22-af2b-3a1fbfe1a7e2</t>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:728780866#searchVariation=MLB21562641&amp;position=13&amp;search_layout=grid&amp;type=product&amp;tracking_id=51badc43-4e17-42d3-bc45-1e6c5a157575</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>499.46</v>
+          <t>bassanparts</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+        </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>805.59</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:728780866#searchVariation=MLB22144397&amp;position=13&amp;search_layout=grid&amp;type=product&amp;tracking_id=9c7e6b4b-710a-4d22-af2b-3a1fbfe1a7e2</t>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:728780866#searchVariation=MLB21348561&amp;position=8&amp;search_layout=grid&amp;type=product&amp;tracking_id=51badc43-4e17-42d3-bc45-1e6c5a157575</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>473.28</v>
+          <t>bassanparts</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
+        </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:728780866#searchVariation=MLB21320712&amp;position=10&amp;search_layout=grid&amp;type=product&amp;tracking_id=9c7e6b4b-710a-4d22-af2b-3a1fbfe1a7e2</t>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:728780866#searchVariation=MLB28687615&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=51badc43-4e17-42d3-bc45-1e6c5a157575</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>83.2</v>
+          <t>bassanparts</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
+        </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>K600</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>61.62</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:728780866#searchVariation=MLB28687615&amp;position=16&amp;search_layout=grid&amp;type=product&amp;tracking_id=9c7e6b4b-710a-4d22-af2b-3a1fbfe1a7e2</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:728780866#searchVariation=MLB32364344&amp;position=19&amp;search_layout=grid&amp;type=product&amp;tracking_id=51badc43-4e17-42d3-bc45-1e6c5a157575</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>443.07</v>
+          <t>bassanparts</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>58.42</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:728780866#searchVariation=MLB21562641&amp;position=15&amp;search_layout=grid&amp;type=product&amp;tracking_id=9c7e6b4b-710a-4d22-af2b-3a1fbfe1a7e2</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:728780866#searchVariation=MLB34210379&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=51badc43-4e17-42d3-bc45-1e6c5a157575</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>K600</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>61.62</v>
+          <t>bassanparts</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+        </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>657.1900000000001</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:728780866#searchVariation=MLB32364344&amp;position=20&amp;search_layout=grid&amp;type=product&amp;tracking_id=9c7e6b4b-710a-4d22-af2b-3a1fbfe1a7e2</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:728780866#searchVariation=MLB24834408&amp;position=26&amp;search_layout=grid&amp;type=product&amp;tracking_id=51badc43-4e17-42d3-bc45-1e6c5a157575</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>493.42</v>
+          <t>bassanparts</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+        </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>499.46</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:728780866#searchVariation=MLB21455208&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=9c7e6b4b-710a-4d22-af2b-3a1fbfe1a7e2</t>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:728780866#searchVariation=MLB22144397&amp;position=36&amp;search_layout=grid&amp;type=product&amp;tracking_id=51badc43-4e17-42d3-bc45-1e6c5a157575</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>58.42</v>
+          <t>bassanparts</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v Cor Preto</t>
+        </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 40A STORM</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>433</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:728780866#searchVariation=MLB34210379&amp;position=37&amp;search_layout=grid&amp;type=product&amp;tracking_id=9c7e6b4b-710a-4d22-af2b-3a1fbfe1a7e2</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:728780866#searchVariation=MLB22569833&amp;position=34&amp;search_layout=grid&amp;type=product&amp;tracking_id=51badc43-4e17-42d3-bc45-1e6c5a157575</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>433</v>
+          <t>bassanparts</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Bob Storm 200a Slim Bivolt Automático - Jfa Cor Preto</t>
+        </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>694.8200000000001</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:728780866#searchVariation=MLB22569833&amp;position=46&amp;search_layout=grid&amp;type=product&amp;tracking_id=9c7e6b4b-710a-4d22-af2b-3a1fbfe1a7e2</t>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-bob-storm-200a-slim-bivolt-automatico-jfa-cor-preto/p/MLB27156459?pdp_filters=seller_id:728780866#searchVariation=MLB27156459&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=51badc43-4e17-42d3-bc45-1e6c5a157575</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Fonte Carregador Bob Storm 200a Slim Bivolt Automático - Jfa Cor Preto</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>731.39</v>
+          <t>bassanparts</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+        </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>493.42</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-bob-storm-200a-slim-bivolt-automatico-jfa-cor-preto/p/MLB27156459?pdp_filters=seller_id:728780866#searchVariation=MLB27156459&amp;position=2&amp;search_layout=grid&amp;type=product&amp;tracking_id=dab37b94-db7c-4210-b4c0-bee2da8484f5</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:728780866#searchVariation=MLB21455208&amp;position=42&amp;search_layout=grid&amp;type=product&amp;tracking_id=51badc43-4e17-42d3-bc45-1e6c5a157575</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>bassanparts</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>FONTE 40A STORM</t>
         </is>
       </c>
-      <c r="C16" t="n">
+      <c r="E16" t="n">
         <v>402.79</v>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:728780866#searchVariation=MLB21621306&amp;position=7&amp;search_layout=grid&amp;type=product&amp;tracking_id=dab37b94-db7c-4210-b4c0-bee2da8484f5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:728780866#searchVariation=MLB21621306&amp;position=48&amp;search_layout=grid&amp;type=product&amp;tracking_id=51badc43-4e17-42d3-bc45-1e6c5a157575</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>bassanparts</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim Cor Preto</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>FONTE 200A STORM</t>
         </is>
       </c>
-      <c r="C17" t="n">
+      <c r="E17" t="n">
         <v>805.59</v>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:728780866#searchVariation=MLB26091477&amp;position=16&amp;search_layout=grid&amp;type=product&amp;tracking_id=dab37b94-db7c-4210-b4c0-bee2da8484f5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:728780866#searchVariation=MLB26091477&amp;position=1&amp;search_layout=grid&amp;type=product&amp;tracking_id=1f6a2656-9e00-4864-b7e2-dba70004b474</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>bassanparts</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>Fonte Automotiva Digital Jfa 60a Slim Bivolt Automatica Cor Preto</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>FONTE 60A STORM</t>
         </is>
       </c>
-      <c r="C18" t="n">
+      <c r="E18" t="n">
         <v>466.39</v>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-digital-jfa-60a-slim-bivolt-automatica-cor-preto/p/MLB21630472?pdp_filters=seller_id:728780866#searchVariation=MLB21630472&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=dab37b94-db7c-4210-b4c0-bee2da8484f5</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-digital-jfa-60a-slim-bivolt-automatica-cor-preto/p/MLB21630472?pdp_filters=seller_id:728780866#searchVariation=MLB21630472&amp;position=10&amp;search_layout=grid&amp;type=product&amp;tracking_id=1f6a2656-9e00-4864-b7e2-dba70004b474</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>bassanparts</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>83.2</v>
-      </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="n">
+        <v>84.90000000000001</v>
+      </c>
+      <c r="F19" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:728780866#searchVariation=MLB28722231&amp;position=35&amp;search_layout=grid&amp;type=product&amp;tracking_id=dab37b94-db7c-4210-b4c0-bee2da8484f5</t>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:728780866#searchVariation=MLB28722231&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=1f6a2656-9e00-4864-b7e2-dba70004b474</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>bassanparts</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>Controle Longa Distância Jfa Acqua 1200 A Prova De Agua Aqua</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>ACQUA</t>
         </is>
       </c>
-      <c r="C20" t="n">
-        <v>83.3</v>
-      </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="n">
+        <v>85</v>
+      </c>
+      <c r="F20" t="inlineStr">
         <is>
           <t>Baixo</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2715926126-controle-longa-distncia-jfa-acqua-1200-a-prova-de-agua-aqua-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddab37b94-db7c-4210-b4c0-bee2da8484f5</t>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2715926126-controle-longa-distncia-jfa-acqua-1200-a-prova-de-agua-aqua-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1f6a2656-9e00-4864-b7e2-dba70004b474</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fonte Som Automotivo Carregador Jfa Bob Storm 200a Caixa Bob</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>694.8200000000001</v>
+          <t>bassanparts</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
+        </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2715902228-fonte-som-automotivo-carregador-jfa-bob-storm-200a-caixa-bob-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Ddab37b94-db7c-4210-b4c0-bee2da8484f5</t>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2117294319-controle-remoto-universal-longa-distncia-jfa-k1200-vermelho-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1f6a2656-9e00-4864-b7e2-dba70004b474</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>bassanparts</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>FONTE 70A LITE</t>
         </is>
       </c>
-      <c r="C22" t="n">
+      <c r="E22" t="n">
         <v>501.52</v>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3587956733-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da7cb2104-da21-4d2c-8bb3-661963320d7e</t>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3587956733-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D884219a0-2744-4f5d-9466-bacae64c4279</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 60a Jfa Fonte Jfa Sistema Inteligente Sci</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>498.19</v>
+          <t>bassanparts</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Controle Longa Distância A Prova De Agua Jfa Acqua K1200</t>
+        </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>ACQUA</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>78.90000000000001</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3185302759-fonte-automotiva-60a-jfa-fonte-jfa-sistema-inteligente-sci-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da7cb2104-da21-4d2c-8bb3-661963320d7e</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2790499891-controle-longa-distncia-a-prova-de-agua-jfa-acqua-k1200-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D884219a0-2744-4f5d-9466-bacae64c4279</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>77.31999999999999</v>
+          <t>bassanparts</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Fonte Automotiva 60a Jfa Fonte Jfa Sistema Inteligente Sci</t>
+        </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>498.19</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2117294319-controle-remoto-universal-longa-distncia-jfa-k1200-vermelho-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da7cb2104-da21-4d2c-8bb3-661963320d7e</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3185302759-fonte-automotiva-60a-jfa-fonte-jfa-sistema-inteligente-sci-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D884219a0-2744-4f5d-9466-bacae64c4279</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>bassanparts</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>Controle Longa Distância Jfa Acqua K1200 Prova De Agua Aqua</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>ACQUA</t>
         </is>
       </c>
-      <c r="C25" t="n">
+      <c r="E25" t="n">
         <v>78.90000000000001</v>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Baixo</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2790537310-controle-longa-distncia-jfa-acqua-k1200-prova-de-agua-aqua-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da7cb2104-da21-4d2c-8bb3-661963320d7e</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2790537310-controle-longa-distncia-jfa-acqua-k1200-prova-de-agua-aqua-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D884219a0-2744-4f5d-9466-bacae64c4279</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>bassanparts</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>Kit 5 Controle Longa Distância Jfa Acqua 1200 A Prova De Ag</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>ACQUA</t>
         </is>
       </c>
-      <c r="C26" t="n">
+      <c r="E26" t="n">
         <v>390.99</v>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3272217371-kit-5-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da7cb2104-da21-4d2c-8bb3-661963320d7e</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3272217371-kit-5-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D884219a0-2744-4f5d-9466-bacae64c4279</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>bassanparts</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t xml:space="preserve">Controle De Longa Distância Jfa K1200 Preto Jfa 1200 Metros </t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="C27" t="n">
+      <c r="E27" t="n">
         <v>64.86</v>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2686829736-controle-de-longa-distncia-jfa-k1200-preto-jfa-1200-metros-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da7cb2104-da21-4d2c-8bb3-661963320d7e</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2686829736-controle-de-longa-distncia-jfa-k1200-preto-jfa-1200-metros-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D884219a0-2744-4f5d-9466-bacae64c4279</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>bassanparts</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>Kit 10 Controle Longa Distância Jfa Acqua 1200 A Prova De A</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>ACQUA</t>
         </is>
       </c>
-      <c r="C28" t="n">
+      <c r="E28" t="n">
         <v>781.99</v>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3272206435-kit-10-controle-longa-distncia-jfa-acqua-1200-a-prova-de-a-_JM#position%3D48%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Da7cb2104-da21-4d2c-8bb3-661963320d7e</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3272206435-kit-10-controle-longa-distncia-jfa-acqua-1200-a-prova-de-a-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D884219a0-2744-4f5d-9466-bacae64c4279</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>bassanparts</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>Kit 6 Controle Longa Distância Jfa Acqua 1200 A Prova De Ag</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>ACQUA</t>
         </is>
       </c>
-      <c r="C29" t="n">
+      <c r="E29" t="n">
         <v>468.99</v>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3272255681-kit-6-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D2%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D809b10f9-eed5-4140-a7af-3403022bfed7</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3272255681-kit-6-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D884219a0-2744-4f5d-9466-bacae64c4279</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>bassanparts</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>Kit 7 Controle Longa Distância Jfa Acqua 1200 A Prova De Ag</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>ACQUA</t>
         </is>
       </c>
-      <c r="C30" t="n">
+      <c r="E30" t="n">
         <v>546.99</v>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3272217373-kit-7-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D3%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D809b10f9-eed5-4140-a7af-3403022bfed7</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3272217373-kit-7-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D884219a0-2744-4f5d-9466-bacae64c4279</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>bassanparts</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>Kit 8 Controle Longa Distância Jfa Acqua 1200 A Prova De Ag</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>ACQUA</t>
         </is>
       </c>
-      <c r="C31" t="n">
+      <c r="E31" t="n">
         <v>624.99</v>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3272240259-kit-8-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D809b10f9-eed5-4140-a7af-3403022bfed7</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3272240259-kit-8-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D884219a0-2744-4f5d-9466-bacae64c4279</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>bassanparts</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>Kit 9 Controle Longa Distância Jfa Acqua 1200 A Prova De Ag</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>ACQUA</t>
         </is>
       </c>
-      <c r="C32" t="n">
+      <c r="E32" t="n">
         <v>702.99</v>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3272273907-kit-9-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D5%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D809b10f9-eed5-4140-a7af-3403022bfed7</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3272273907-kit-9-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D884219a0-2744-4f5d-9466-bacae64c4279</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Controle Longa Distância A Prova De Agua Jfa Acqua K1200</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ACQUA</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>78.90000000000001</v>
+          <t>bassanparts</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Fonte Chaveada Carregador Automotivo Jfa 70a Storm Bivolt</t>
+        </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Baixo</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>519.39</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2790499891-controle-longa-distncia-a-prova-de-agua-jfa-acqua-k1200-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D809b10f9-eed5-4140-a7af-3403022bfed7</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3185233716-fonte-chaveada-carregador-automotivo-jfa-70a-storm-bivolt-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db520b237-3732-4df1-b2e2-077e9babed9e</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Fonte Chaveada Carregador Automotivo Jfa 70a Storm Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>523.63</v>
+          <t>bassanparts</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Fonte Som Automotivo Carregador Jfa Bob Storm 200a Caixa Bob</t>
+        </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>624.33</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2858496359-fonte-chaveada-carregador-automotivo-jfa-70a-storm-bivolt-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D809b10f9-eed5-4140-a7af-3403022bfed7</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2715908897-fonte-som-automotivo-carregador-jfa-bob-storm-200a-caixa-bob-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db520b237-3732-4df1-b2e2-077e9babed9e</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Fonte Som Automotivo Carregador Jfa Bob Storm 200a Caixa Bob</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>624.33</v>
+          <t>bassanparts</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Fonte Chaveada Carregador Automotivo Jfa 70a Storm Bivolt</t>
+        </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>523.63</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
           <t>Igual</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2715908897-fonte-som-automotivo-carregador-jfa-bob-storm-200a-caixa-bob-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D809b10f9-eed5-4140-a7af-3403022bfed7</t>
+          <t>FULL</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2858496359-fonte-chaveada-carregador-automotivo-jfa-70a-storm-bivolt-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db520b237-3732-4df1-b2e2-077e9babed9e</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Fonte Chaveada Carregador Automotivo Jfa 70a Storm Bivolt</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>519.39</v>
+          <t>bassanparts</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+        </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>64.86</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3185233716-fonte-chaveada-carregador-automotivo-jfa-70a-storm-bivolt-_JM#position%3D46%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D809b10f9-eed5-4140-a7af-3403022bfed7</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2637072375-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db520b237-3732-4df1-b2e2-077e9babed9e</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Fonte Chaveada Para Carro Jfa 90a Bob Storm Slim Bivolt Top</t>
+          <t>30/07/2024</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>422.93</v>
+          <t>bassanparts</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+        </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>FULL</t>
-        </is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>84.90000000000001</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3244366352-fonte-chaveada-para-carro-jfa-90a-bob-storm-slim-bivolt-top-_JM#position%3D47%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D809b10f9-eed5-4140-a7af-3403022bfed7</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2637018486-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db520b237-3732-4df1-b2e2-077e9babed9e</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>30/07/2024</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>bassanparts</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>K1200</t>
         </is>
       </c>
-      <c r="C38" t="n">
+      <c r="E38" t="n">
         <v>64.86</v>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>Acima</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2637072375-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D540518b1-8f12-4b25-a844-76dcb09f0f1f</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>64.86</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2637055462-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D540518b1-8f12-4b25-a844-76dcb09f0f1f</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>84.90000000000001</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2637018486-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D540518b1-8f12-4b25-a844-76dcb09f0f1f</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2637055462-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db520b237-3732-4df1-b2e2-077e9babed9e</t>
         </is>
       </c>
     </row>

--- a/dados/bassanparts.xlsx
+++ b/dados/bassanparts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -493,20 +493,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Controle Remoto Jfa Redline Wr Longo Alcance De Longa Distan</t>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CONTROLE WR</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>94.90000000000001</v>
+        <v>84</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -516,19 +516,19 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-jfa-redline-wr-longo-alcance-de-longa-distan/p/MLB28557249?pdp_filters=seller_id:728780866#searchVariation=MLB28557249&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=51badc43-4e17-42d3-bc45-1e6c5a157575</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:728780866#searchVariation=MLB27685629&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=264c78f8-0544-4a15-9dec-f7a203df97a0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -538,20 +538,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>84</v>
+        <v>422.93</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -561,19 +561,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:728780866#searchVariation=MLB27685629&amp;position=7&amp;search_layout=grid&amp;type=product&amp;tracking_id=51badc43-4e17-42d3-bc45-1e6c5a157575</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:728780866#searchVariation=MLB21562641&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=264c78f8-0544-4a15-9dec-f7a203df97a0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -583,20 +583,20 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>89</v>
+        <v>805.59</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -606,19 +606,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:728780866#searchVariation=MLB27970249&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=51badc43-4e17-42d3-bc45-1e6c5a157575</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:728780866#searchVariation=MLB21348561&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=264c78f8-0544-4a15-9dec-f7a203df97a0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -628,25 +628,25 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>473.28</v>
+        <v>82.77</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -656,14 +656,14 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:728780866#searchVariation=MLB21320712&amp;position=10&amp;search_layout=grid&amp;type=product&amp;tracking_id=51badc43-4e17-42d3-bc45-1e6c5a157575</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:728780866#searchVariation=MLB27970249&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=264c78f8-0544-4a15-9dec-f7a203df97a0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -673,20 +673,20 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>Controle Longa Distância Jfa Acqua 1200 A Prova De Agua Aqua</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>466.39</v>
+        <v>84.15000000000001</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -701,14 +701,14 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:728780866#searchVariation=MLB21562641&amp;position=13&amp;search_layout=grid&amp;type=product&amp;tracking_id=51badc43-4e17-42d3-bc45-1e6c5a157575</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2715926126-controle-longa-distncia-jfa-acqua-1200-a-prova-de-agua-aqua-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D615d81b8-891e-4ce8-ba16-2e7e9c65e2e3</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -718,16 +718,16 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>805.59</v>
+        <v>624.33</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -746,14 +746,14 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:728780866#searchVariation=MLB21348561&amp;position=8&amp;search_layout=grid&amp;type=product&amp;tracking_id=51badc43-4e17-42d3-bc45-1e6c5a157575</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:728780866#searchVariation=MLB24834408&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=264c78f8-0544-4a15-9dec-f7a203df97a0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -763,16 +763,16 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>84.90000000000001</v>
+        <v>501.52</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -791,14 +791,14 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:728780866#searchVariation=MLB28687615&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=51badc43-4e17-42d3-bc45-1e6c5a157575</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3587956733-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D92dc9954-f204-4ff4-ae55-c8d78c850048</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -808,16 +808,16 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>61.62</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -826,7 +826,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -836,14 +836,14 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:728780866#searchVariation=MLB32364344&amp;position=19&amp;search_layout=grid&amp;type=product&amp;tracking_id=51badc43-4e17-42d3-bc45-1e6c5a157575</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2117294319-controle-remoto-universal-longa-distncia-jfa-k1200-vermelho-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D615d81b8-891e-4ce8-ba16-2e7e9c65e2e3</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -853,42 +853,42 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>58.42</v>
+        <v>473.28</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:728780866#searchVariation=MLB34210379&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=51badc43-4e17-42d3-bc45-1e6c5a157575</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:728780866#searchVariation=MLB21320712&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=264c78f8-0544-4a15-9dec-f7a203df97a0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -898,25 +898,25 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+          <t>Controle Longa Distância Jfa Acqua K1200 Prova De Agua Aqua</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>657.1900000000001</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -926,14 +926,14 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:728780866#searchVariation=MLB24834408&amp;position=26&amp;search_layout=grid&amp;type=product&amp;tracking_id=51badc43-4e17-42d3-bc45-1e6c5a157575</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2790537310-controle-longa-distncia-jfa-acqua-k1200-prova-de-agua-aqua-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D92dc9954-f204-4ff4-ae55-c8d78c850048</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -943,16 +943,16 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Fonte Som Automotivo Carregador Jfa Bob Storm 200a Caixa Bob</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>499.46</v>
+        <v>694.8200000000001</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -966,19 +966,19 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:728780866#searchVariation=MLB22144397&amp;position=36&amp;search_layout=grid&amp;type=product&amp;tracking_id=51badc43-4e17-42d3-bc45-1e6c5a157575</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2715902228-fonte-som-automotivo-carregador-jfa-bob-storm-200a-caixa-bob-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D615d81b8-891e-4ce8-ba16-2e7e9c65e2e3</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -988,16 +988,16 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v Cor Preto</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>433</v>
+        <v>499.46</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -1011,19 +1011,19 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:728780866#searchVariation=MLB22569833&amp;position=34&amp;search_layout=grid&amp;type=product&amp;tracking_id=51badc43-4e17-42d3-bc45-1e6c5a157575</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:728780866#searchVariation=MLB22144397&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=264c78f8-0544-4a15-9dec-f7a203df97a0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1033,20 +1033,20 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Fonte Carregador Bob Storm 200a Slim Bivolt Automático - Jfa Cor Preto</t>
+          <t>Fonte Automotiva 60a Jfa Fonte Jfa Sistema Inteligente Sci</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>694.8200000000001</v>
+        <v>498.19</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1061,14 +1061,14 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-bob-storm-200a-slim-bivolt-automatico-jfa-cor-preto/p/MLB27156459?pdp_filters=seller_id:728780866#searchVariation=MLB27156459&amp;position=32&amp;search_layout=grid&amp;type=product&amp;tracking_id=51badc43-4e17-42d3-bc45-1e6c5a157575</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3185302759-fonte-automotiva-60a-jfa-fonte-jfa-sistema-inteligente-sci-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D92dc9954-f204-4ff4-ae55-c8d78c850048</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1078,16 +1078,16 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Fonte Carregador Bob Storm 200a Slim Bivolt Automático - Jfa Cor Preto</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>493.42</v>
+        <v>694.8200000000001</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1101,19 +1101,19 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:728780866#searchVariation=MLB21455208&amp;position=42&amp;search_layout=grid&amp;type=product&amp;tracking_id=51badc43-4e17-42d3-bc45-1e6c5a157575</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-bob-storm-200a-slim-bivolt-automatico-jfa-cor-preto/p/MLB27156459?pdp_filters=seller_id:728780866#searchVariation=MLB27156459&amp;position=32&amp;search_layout=stack&amp;type=product&amp;tracking_id=264c78f8-0544-4a15-9dec-f7a203df97a0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1123,20 +1123,20 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
+          <t>Controle Longa Distância A Prova De Agua Jfa Acqua K1200</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>402.79</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1151,14 +1151,14 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:728780866#searchVariation=MLB21621306&amp;position=48&amp;search_layout=grid&amp;type=product&amp;tracking_id=51badc43-4e17-42d3-bc45-1e6c5a157575</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2790499891-controle-longa-distncia-a-prova-de-agua-jfa-acqua-k1200-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D92dc9954-f204-4ff4-ae55-c8d78c850048</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1168,20 +1168,20 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim Cor Preto</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>805.59</v>
+        <v>58.42</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1196,14 +1196,14 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:728780866#searchVariation=MLB26091477&amp;position=1&amp;search_layout=grid&amp;type=product&amp;tracking_id=1f6a2656-9e00-4864-b7e2-dba70004b474</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:728780866#searchVariation=MLB34210379&amp;position=31&amp;search_layout=stack&amp;type=product&amp;tracking_id=264c78f8-0544-4a15-9dec-f7a203df97a0</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1213,16 +1213,16 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Digital Jfa 60a Slim Bivolt Automatica Cor Preto</t>
+          <t xml:space="preserve">Controle De Longa Distância Jfa K1200 Preto Jfa 1200 Metros </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>466.39</v>
+        <v>64.86</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
@@ -1241,14 +1241,14 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-digital-jfa-60a-slim-bivolt-automatica-cor-preto/p/MLB21630472?pdp_filters=seller_id:728780866#searchVariation=MLB21630472&amp;position=10&amp;search_layout=grid&amp;type=product&amp;tracking_id=1f6a2656-9e00-4864-b7e2-dba70004b474</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2686829736-controle-de-longa-distncia-jfa-k1200-preto-jfa-1200-metros-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D92dc9954-f204-4ff4-ae55-c8d78c850048</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1258,16 +1258,16 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>84.90000000000001</v>
+        <v>61.62</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -1276,24 +1276,24 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:728780866#searchVariation=MLB28722231&amp;position=22&amp;search_layout=grid&amp;type=product&amp;tracking_id=1f6a2656-9e00-4864-b7e2-dba70004b474</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:728780866#searchVariation=MLB32364344&amp;position=23&amp;search_layout=stack&amp;type=product&amp;tracking_id=264c78f8-0544-4a15-9dec-f7a203df97a0</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 A Prova De Agua Aqua</t>
+          <t>Kit 5 Controle Longa Distância Jfa Acqua 1200 A Prova De Ag</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1312,33 +1312,33 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>85</v>
+        <v>390.99</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2715926126-controle-longa-distncia-jfa-acqua-1200-a-prova-de-agua-aqua-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1f6a2656-9e00-4864-b7e2-dba70004b474</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3272217371-kit-5-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D92dc9954-f204-4ff4-ae55-c8d78c850048</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1348,7 +1348,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1357,7 +1357,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>78.90000000000001</v>
+        <v>83.2</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
@@ -1371,19 +1371,19 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2117294319-controle-remoto-universal-longa-distncia-jfa-k1200-vermelho-_JM#position%3D44%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D1f6a2656-9e00-4864-b7e2-dba70004b474</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:728780866#searchVariation=MLB28687615&amp;position=21&amp;search_layout=stack&amp;type=product&amp;tracking_id=264c78f8-0544-4a15-9dec-f7a203df97a0</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1393,16 +1393,16 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+          <t>Kit 9 Controle Longa Distância Jfa Acqua 1200 A Prova De Ag</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>501.52</v>
+        <v>702.99</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1416,19 +1416,19 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3587956733-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D9%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D884219a0-2744-4f5d-9466-bacae64c4279</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3272273907-kit-9-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D92dc9954-f204-4ff4-ae55-c8d78c850048</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1438,7 +1438,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Controle Longa Distância A Prova De Agua Jfa Acqua K1200</t>
+          <t>Kit 8 Controle Longa Distância Jfa Acqua 1200 A Prova De Ag</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1447,11 +1447,11 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>78.90000000000001</v>
+        <v>624.99</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1466,14 +1466,14 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2790499891-controle-longa-distncia-a-prova-de-agua-jfa-acqua-k1200-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D884219a0-2744-4f5d-9466-bacae64c4279</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3272240259-kit-8-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D92dc9954-f204-4ff4-ae55-c8d78c850048</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1483,42 +1483,42 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 60a Jfa Fonte Jfa Sistema Inteligente Sci</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>498.19</v>
+        <v>493.42</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3185302759-fonte-automotiva-60a-jfa-fonte-jfa-sistema-inteligente-sci-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D884219a0-2744-4f5d-9466-bacae64c4279</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:728780866#searchVariation=MLB21455208&amp;position=47&amp;search_layout=stack&amp;type=product&amp;tracking_id=264c78f8-0544-4a15-9dec-f7a203df97a0</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua K1200 Prova De Agua Aqua</t>
+          <t>Kit 7 Controle Longa Distância Jfa Acqua 1200 A Prova De Ag</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1537,11 +1537,11 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>78.90000000000001</v>
+        <v>546.99</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1556,14 +1556,14 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2790537310-controle-longa-distncia-jfa-acqua-k1200-prova-de-agua-aqua-_JM#position%3D25%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D884219a0-2744-4f5d-9466-bacae64c4279</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3272217373-kit-7-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D92dc9954-f204-4ff4-ae55-c8d78c850048</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1573,42 +1573,42 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Kit 5 Controle Longa Distância Jfa Acqua 1200 A Prova De Ag</t>
+          <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v Cor Preto</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>FONTE 40A STORM</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>390.99</v>
+        <v>433</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3272217371-kit-5-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D28%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D884219a0-2744-4f5d-9466-bacae64c4279</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:728780866#searchVariation=MLB22569833&amp;position=42&amp;search_layout=stack&amp;type=product&amp;tracking_id=264c78f8-0544-4a15-9dec-f7a203df97a0</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1618,16 +1618,16 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle De Longa Distância Jfa K1200 Preto Jfa 1200 Metros </t>
+          <t>Kit 6 Controle Longa Distância Jfa Acqua 1200 A Prova De Ag</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>64.86</v>
+        <v>468.99</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1646,14 +1646,14 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2686829736-controle-de-longa-distncia-jfa-k1200-preto-jfa-1200-metros-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D884219a0-2744-4f5d-9466-bacae64c4279</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3272255681-kit-6-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D92dc9954-f204-4ff4-ae55-c8d78c850048</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1663,16 +1663,16 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Kit 10 Controle Longa Distância Jfa Acqua 1200 A Prova De A</t>
+          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>FONTE 40A STORM</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>781.99</v>
+        <v>423.99</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1691,14 +1691,14 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3272206435-kit-10-controle-longa-distncia-jfa-acqua-1200-a-prova-de-a-_JM#position%3D30%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D884219a0-2744-4f5d-9466-bacae64c4279</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:728780866#searchVariation=MLB21621306&amp;position=50&amp;search_layout=stack&amp;type=product&amp;tracking_id=264c78f8-0544-4a15-9dec-f7a203df97a0</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Kit 6 Controle Longa Distância Jfa Acqua 1200 A Prova De Ag</t>
+          <t>Kit 10 Controle Longa Distância Jfa Acqua 1200 A Prova De A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1717,7 +1717,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>468.99</v>
+        <v>781.99</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1736,14 +1736,14 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3272255681-kit-6-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D884219a0-2744-4f5d-9466-bacae64c4279</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3272206435-kit-10-controle-longa-distncia-jfa-acqua-1200-a-prova-de-a-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D92dc9954-f204-4ff4-ae55-c8d78c850048</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1753,20 +1753,20 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Kit 7 Controle Longa Distância Jfa Acqua 1200 A Prova De Ag</t>
+          <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim Cor Preto</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>546.99</v>
+        <v>805.59</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1781,14 +1781,14 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3272217373-kit-7-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D884219a0-2744-4f5d-9466-bacae64c4279</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:728780866#searchVariation=MLB26091477&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=615d81b8-891e-4ce8-ba16-2e7e9c65e2e3</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1798,16 +1798,16 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Kit 8 Controle Longa Distância Jfa Acqua 1200 A Prova De Ag</t>
+          <t>Fonte Chaveada Carregador Automotivo Jfa 70a Storm Bivolt</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>624.99</v>
+        <v>519.39</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1826,14 +1826,14 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3272240259-kit-8-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D884219a0-2744-4f5d-9466-bacae64c4279</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3185233716-fonte-chaveada-carregador-automotivo-jfa-70a-storm-bivolt-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D15482e19-bab4-4898-9774-34346e8ca466</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1843,20 +1843,20 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Kit 9 Controle Longa Distância Jfa Acqua 1200 A Prova De Ag</t>
+          <t>Fonte Som Automotivo Carregador Jfa Bob Storm 200a Caixa Bob</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>702.99</v>
+        <v>624.33</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1871,14 +1871,14 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3272273907-kit-9-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D884219a0-2744-4f5d-9466-bacae64c4279</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2715908897-fonte-som-automotivo-carregador-jfa-bob-storm-200a-caixa-bob-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D15482e19-bab4-4898-9774-34346e8ca466</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1888,16 +1888,16 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Fonte Chaveada Carregador Automotivo Jfa 70a Storm Bivolt</t>
+          <t>Fonte Automotiva Digital Jfa 60a Slim Bivolt Automatica Cor Preto</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>519.39</v>
+        <v>466.39</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1916,14 +1916,14 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3185233716-fonte-chaveada-carregador-automotivo-jfa-70a-storm-bivolt-_JM#position%3D1%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db520b237-3732-4df1-b2e2-077e9babed9e</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-digital-jfa-60a-slim-bivolt-automatica-cor-preto/p/MLB21630472?pdp_filters=seller_id:728780866#searchVariation=MLB21630472&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=615d81b8-891e-4ce8-ba16-2e7e9c65e2e3</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1933,16 +1933,16 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Fonte Som Automotivo Carregador Jfa Bob Storm 200a Caixa Bob</t>
+          <t>Fonte Chaveada Para Carro Jfa 90a Bob Storm Slim Bivolt Top</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>624.33</v>
+        <v>422.93</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1961,14 +1961,14 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2715908897-fonte-som-automotivo-carregador-jfa-bob-storm-200a-caixa-bob-_JM#position%3D27%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db520b237-3732-4df1-b2e2-077e9babed9e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3244366352-fonte-chaveada-para-carro-jfa-90a-bob-storm-slim-bivolt-top-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D15482e19-bab4-4898-9774-34346e8ca466</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1978,20 +1978,20 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Fonte Chaveada Carregador Automotivo Jfa 70a Storm Bivolt</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>523.63</v>
+        <v>83</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2006,14 +2006,14 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2858496359-fonte-chaveada-carregador-automotivo-jfa-70a-storm-bivolt-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db520b237-3732-4df1-b2e2-077e9babed9e</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:728780866#searchVariation=MLB28722231&amp;position=26&amp;search_layout=stack&amp;type=product&amp;tracking_id=615d81b8-891e-4ce8-ba16-2e7e9c65e2e3</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2023,125 +2023,35 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+          <t>Fonte Chaveada Carregador Automotivo Jfa 70a Storm Bivolt</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>64.86</v>
+        <v>523.63</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2637072375-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db520b237-3732-4df1-b2e2-077e9babed9e</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>30/07/2024</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>bassanparts</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="E37" t="n">
-        <v>84.90000000000001</v>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>premium</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2637018486-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D42%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db520b237-3732-4df1-b2e2-077e9babed9e</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>30/07/2024</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>bassanparts</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>K1200</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
-        <v>64.86</v>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>classico</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2637055462-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D43%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3Db520b237-3732-4df1-b2e2-077e9babed9e</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2858496359-fonte-chaveada-carregador-automotivo-jfa-70a-storm-bivolt-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D15482e19-bab4-4898-9774-34346e8ca466</t>
         </is>
       </c>
     </row>

--- a/dados/bassanparts.xlsx
+++ b/dados/bassanparts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -493,20 +493,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
+          <t>Fonte Carregador Bob Storm 200a Slim Bivolt Automático - Jfa Cor Preto</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>84</v>
+        <v>715.66</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -521,14 +521,14 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:728780866#searchVariation=MLB27685629&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=264c78f8-0544-4a15-9dec-f7a203df97a0</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-bob-storm-200a-slim-bivolt-automatico-jfa-cor-preto/p/MLB27156459?pdp_filters=seller_id:728780866#wid=MLB4302614100&amp;sid=search&amp;searchVariation=MLB27156459&amp;position=42&amp;search_layout=grid&amp;type=product&amp;tracking_id=55136e65-eec7-4877-8ce7-d82e51d41c05</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -538,20 +538,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>422.93</v>
+        <v>84</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -561,19 +561,19 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:728780866#searchVariation=MLB21562641&amp;position=16&amp;search_layout=stack&amp;type=product&amp;tracking_id=264c78f8-0544-4a15-9dec-f7a203df97a0</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:728780866#wid=MLB4471566666&amp;sid=search&amp;searchVariation=MLB27685629&amp;position=4&amp;search_layout=grid&amp;type=product&amp;tracking_id=55136e65-eec7-4877-8ce7-d82e51d41c05</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -583,20 +583,20 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>805.59</v>
+        <v>78</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -606,19 +606,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:728780866#searchVariation=MLB21348561&amp;position=15&amp;search_layout=stack&amp;type=product&amp;tracking_id=264c78f8-0544-4a15-9dec-f7a203df97a0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2117333424-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2ca5978c-2272-4335-9c07-dfbd13113c2c</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -628,20 +628,20 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K600 Completo Preto E Cinza</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>82.77</v>
+        <v>508.22</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -651,19 +651,19 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k600-completo-preto-e-cinza/p/MLB27970249?pdp_filters=seller_id:728780866#searchVariation=MLB27970249&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=264c78f8-0544-4a15-9dec-f7a203df97a0</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:728780866#wid=MLB3240740088&amp;sid=search&amp;searchVariation=MLB21455208&amp;position=41&amp;search_layout=grid&amp;type=product&amp;tracking_id=55136e65-eec7-4877-8ce7-d82e51d41c05</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -673,20 +673,20 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua 1200 A Prova De Agua Aqua</t>
+          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>84.15000000000001</v>
+        <v>487.48</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -701,14 +701,14 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2715926126-controle-longa-distncia-jfa-acqua-1200-a-prova-de-agua-aqua-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D615d81b8-891e-4ce8-ba16-2e7e9c65e2e3</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:728780866#wid=MLB3607373829&amp;sid=search&amp;searchVariation=MLB21320712&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=55136e65-eec7-4877-8ce7-d82e51d41c05</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -718,7 +718,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
+          <t>Fonte Som Automotivo Carregador Jfa Bob Storm 200a Caixa Bob</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -727,11 +727,11 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>624.33</v>
+        <v>715.66</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -741,19 +741,19 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:728780866#searchVariation=MLB24834408&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=264c78f8-0544-4a15-9dec-f7a203df97a0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2715902228-fonte-som-automotivo-carregador-jfa-bob-storm-200a-caixa-bob-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D28b70cb0-e2cd-4e3c-8baa-7bcc5ae129fe</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -763,16 +763,16 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
+          <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v Cor Preto</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>FONTE 70A LITE</t>
+          <t>FONTE 40A STORM</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>501.52</v>
+        <v>445.98</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -791,14 +791,14 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3587956733-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D92dc9954-f204-4ff4-ae55-c8d78c850048</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:728780866#wid=MLB4484761988&amp;sid=search&amp;searchVariation=MLB22569833&amp;position=6&amp;search_layout=grid&amp;type=product&amp;tracking_id=2ca5978c-2272-4335-9c07-dfbd13113c2c</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -836,14 +836,14 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2117294319-controle-remoto-universal-longa-distncia-jfa-k1200-vermelho-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D615d81b8-891e-4ce8-ba16-2e7e9c65e2e3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2117294319-controle-remoto-universal-longa-distncia-jfa-k1200-vermelho-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2ca5978c-2272-4335-9c07-dfbd13113c2c</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -853,42 +853,42 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>473.28</v>
+        <v>58.42</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:728780866#searchVariation=MLB21320712&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=264c78f8-0544-4a15-9dec-f7a203df97a0</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:728780866#wid=MLB4611876752&amp;sid=search&amp;searchVariation=MLB34210379&amp;position=21&amp;search_layout=grid&amp;type=product&amp;tracking_id=55136e65-eec7-4877-8ce7-d82e51d41c05</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -898,20 +898,20 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa Acqua K1200 Prova De Agua Aqua</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>78.90000000000001</v>
+        <v>64.86</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -926,14 +926,14 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2790537310-controle-longa-distncia-jfa-acqua-k1200-prova-de-agua-aqua-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D92dc9954-f204-4ff4-ae55-c8d78c850048</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:728780866#wid=MLB4471566790&amp;sid=search&amp;searchVariation=MLB28687615&amp;position=33&amp;search_layout=grid&amp;type=product&amp;tracking_id=55136e65-eec7-4877-8ce7-d82e51d41c05</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -943,20 +943,20 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Fonte Som Automotivo Carregador Jfa Bob Storm 200a Caixa Bob</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>694.8200000000001</v>
+        <v>514.4400000000001</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -966,19 +966,19 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2715902228-fonte-som-automotivo-carregador-jfa-bob-storm-200a-caixa-bob-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D615d81b8-891e-4ce8-ba16-2e7e9c65e2e3</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:728780866#wid=MLB3640283009&amp;sid=search&amp;searchVariation=MLB22144397&amp;position=23&amp;search_layout=grid&amp;type=product&amp;tracking_id=2ca5978c-2272-4335-9c07-dfbd13113c2c</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -988,20 +988,20 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Controle Longa Distância Jfa Acqua 1200 A Prova De Agua Aqua</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>499.46</v>
+        <v>84</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1011,19 +1011,19 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:728780866#searchVariation=MLB22144397&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=264c78f8-0544-4a15-9dec-f7a203df97a0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2715926126-controle-longa-distncia-jfa-acqua-1200-a-prova-de-agua-aqua-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D2ca5978c-2272-4335-9c07-dfbd13113c2c</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1033,16 +1033,16 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 60a Jfa Fonte Jfa Sistema Inteligente Sci</t>
+          <t>Fonte Carregador Jfa Storm 200 A Sci Mais Forte Do Brasil</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>498.19</v>
+        <v>871.24</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -1061,14 +1061,14 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3185302759-fonte-automotiva-60a-jfa-fonte-jfa-sistema-inteligente-sci-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D92dc9954-f204-4ff4-ae55-c8d78c850048</t>
+          <t>https://produto.mercadolivre.com.br/MLB-5042322048-fonte-carregador-jfa-storm-200-a-sci-mais-forte-do-brasil-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D28b70cb0-e2cd-4e3c-8baa-7bcc5ae129fe</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1078,16 +1078,16 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Fonte Carregador Bob Storm 200a Slim Bivolt Automático - Jfa Cor Preto</t>
+          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>694.8200000000001</v>
+        <v>61.62</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -1096,24 +1096,24 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-bob-storm-200a-slim-bivolt-automatico-jfa-cor-preto/p/MLB27156459?pdp_filters=seller_id:728780866#searchVariation=MLB27156459&amp;position=32&amp;search_layout=stack&amp;type=product&amp;tracking_id=264c78f8-0544-4a15-9dec-f7a203df97a0</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:728780866#wid=MLB3596089757&amp;sid=search&amp;searchVariation=MLB32364344&amp;position=30&amp;search_layout=grid&amp;type=product&amp;tracking_id=55136e65-eec7-4877-8ce7-d82e51d41c05</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1123,20 +1123,20 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Controle Longa Distância A Prova De Agua Jfa Acqua K1200</t>
+          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>FONTE 40A STORM</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>78.90000000000001</v>
+        <v>423.99</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Baixo</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1151,14 +1151,14 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2790499891-controle-longa-distncia-a-prova-de-agua-jfa-acqua-k1200-_JM#position%3D24%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D92dc9954-f204-4ff4-ae55-c8d78c850048</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:728780866#wid=MLB3240699712&amp;sid=search&amp;searchVariation=MLB21621306&amp;position=17&amp;search_layout=grid&amp;type=product&amp;tracking_id=2ca5978c-2272-4335-9c07-dfbd13113c2c</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1168,16 +1168,16 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Vermelho</t>
+          <t>Fonte Automotiva Digital Jfa 60a Slim Bivolt Automatica Cor Preto</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>58.42</v>
+        <v>456.36</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -1196,14 +1196,14 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-vermelho/p/MLB34210379?pdp_filters=seller_id:728780866#searchVariation=MLB34210379&amp;position=31&amp;search_layout=stack&amp;type=product&amp;tracking_id=264c78f8-0544-4a15-9dec-f7a203df97a0</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-digital-jfa-60a-slim-bivolt-automatica-cor-preto/p/MLB21630472?pdp_filters=seller_id:728780866#wid=MLB3623409442&amp;sid=search&amp;searchVariation=MLB21630472&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=2ca5978c-2272-4335-9c07-dfbd13113c2c</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1213,20 +1213,20 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Controle De Longa Distância Jfa K1200 Preto Jfa 1200 Metros </t>
+          <t>Controle Longa Distância A Prova De Agua Jfa Acqua K1200</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>64.86</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1241,14 +1241,14 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2686829736-controle-de-longa-distncia-jfa-k1200-preto-jfa-1200-metros-_JM#position%3D33%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D92dc9954-f204-4ff4-ae55-c8d78c850048</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2790499891-controle-longa-distncia-a-prova-de-agua-jfa-acqua-k1200-_JM#position%3D32%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D28b70cb0-e2cd-4e3c-8baa-7bcc5ae129fe</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1258,25 +1258,25 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Controle Longa Distancia Jfa K600 Branco Com Cinza</t>
+          <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>K600</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>61.62</v>
+        <v>643.0599999999999</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1286,14 +1286,14 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distancia-jfa-k600-branco-com-cinza/p/MLB32364344?pdp_filters=seller_id:728780866#searchVariation=MLB32364344&amp;position=23&amp;search_layout=stack&amp;type=product&amp;tracking_id=264c78f8-0544-4a15-9dec-f7a203df97a0</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:728780866#wid=MLB3920801674&amp;sid=search&amp;searchVariation=MLB24834408&amp;position=9&amp;search_layout=grid&amp;type=product&amp;tracking_id=55136e65-eec7-4877-8ce7-d82e51d41c05</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1303,16 +1303,16 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Kit 5 Controle Longa Distância Jfa Acqua 1200 A Prova De Ag</t>
+          <t>Fonte Automotiva Jfa Storm Lite 70a Bivolt Carregador</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>FONTE 70A LITE</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>390.99</v>
+        <v>447.45</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
@@ -1326,19 +1326,19 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3272217371-kit-5-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D31%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D92dc9954-f204-4ff4-ae55-c8d78c850048</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3587956733-fonte-automotiva-jfa-storm-lite-70a-bivolt-carregador-_JM#position%3D26%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D28b70cb0-e2cd-4e3c-8baa-7bcc5ae129fe</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1348,42 +1348,42 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Controle Remoto Universal Longa Distância Jfa K1200 Preto</t>
+          <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim Cor Preto</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>K1200</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>83.2</v>
+        <v>829.75</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-preto/p/MLB28687615?pdp_filters=seller_id:728780866#searchVariation=MLB28687615&amp;position=21&amp;search_layout=stack&amp;type=product&amp;tracking_id=264c78f8-0544-4a15-9dec-f7a203df97a0</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:728780866#wid=MLB3432187753&amp;sid=search&amp;searchVariation=MLB26091477&amp;position=10&amp;search_layout=grid&amp;type=product&amp;tracking_id=2ca5978c-2272-4335-9c07-dfbd13113c2c</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1393,16 +1393,16 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Kit 9 Controle Longa Distância Jfa Acqua 1200 A Prova De Ag</t>
+          <t>Fonte Automotiva 60a Jfa Fonte Jfa Sistema Inteligente Sci</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>702.99</v>
+        <v>487.48</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
@@ -1416,19 +1416,19 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3272273907-kit-9-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D40%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D92dc9954-f204-4ff4-ae55-c8d78c850048</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3185302759-fonte-automotiva-60a-jfa-fonte-jfa-sistema-inteligente-sci-_JM#position%3D22%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D28b70cb0-e2cd-4e3c-8baa-7bcc5ae129fe</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1438,25 +1438,25 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Kit 8 Controle Longa Distância Jfa Acqua 1200 A Prova De Ag</t>
+          <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>FONTE 200A STORM</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>624.99</v>
+        <v>829.75</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1466,14 +1466,14 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3272240259-kit-8-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D39%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D92dc9954-f204-4ff4-ae55-c8d78c850048</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:728780866#wid=MLB3240713258&amp;sid=search&amp;searchVariation=MLB21348561&amp;position=26&amp;search_layout=grid&amp;type=product&amp;tracking_id=55136e65-eec7-4877-8ce7-d82e51d41c05</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1483,20 +1483,20 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>493.42</v>
+        <v>435.62</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1511,14 +1511,14 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:728780866#searchVariation=MLB21455208&amp;position=47&amp;search_layout=stack&amp;type=product&amp;tracking_id=264c78f8-0544-4a15-9dec-f7a203df97a0</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:728780866#wid=MLB3242778037&amp;sid=search&amp;searchVariation=MLB21562641&amp;position=1&amp;search_layout=grid&amp;type=product&amp;tracking_id=55136e65-eec7-4877-8ce7-d82e51d41c05</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1528,20 +1528,20 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Kit 7 Controle Longa Distância Jfa Acqua 1200 A Prova De Ag</t>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ACQUA</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>546.99</v>
+        <v>64.86</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1556,14 +1556,14 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3272217373-kit-7-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D38%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D92dc9954-f204-4ff4-ae55-c8d78c850048</t>
+          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:728780866#wid=MLB3589582259&amp;sid=search&amp;searchVariation=MLB28722231&amp;position=27&amp;search_layout=grid&amp;type=product&amp;tracking_id=2ca5978c-2272-4335-9c07-dfbd13113c2c</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1573,42 +1573,42 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm 40a Bivolt - 12v Cor Preto</t>
+          <t>Controle Longa Distância Jfa Acqua K1200 Prova De Agua Aqua</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>433</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-storm-40a-bivolt-12v-cor-preto/p/MLB22569833?pdp_filters=seller_id:728780866#searchVariation=MLB22569833&amp;position=42&amp;search_layout=stack&amp;type=product&amp;tracking_id=264c78f8-0544-4a15-9dec-f7a203df97a0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2790537310-controle-longa-distncia-jfa-acqua-k1200-prova-de-agua-aqua-_JM#position%3D4%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D95ea7b99-558d-448f-90dc-1ac2732c1317</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1618,7 +1618,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Kit 6 Controle Longa Distância Jfa Acqua 1200 A Prova De Ag</t>
+          <t>Kit 10 Controle Longa Distância Jfa Acqua 1200 A Prova De A</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1627,7 +1627,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>468.99</v>
+        <v>781.99</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
@@ -1646,14 +1646,14 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3272255681-kit-6-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D35%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D92dc9954-f204-4ff4-ae55-c8d78c850048</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3272206435-kit-10-controle-longa-distncia-jfa-acqua-1200-a-prova-de-a-_JM#position%3D11%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D95ea7b99-558d-448f-90dc-1ac2732c1317</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1663,16 +1663,16 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 40 Amperes Jfa Storm Red Line Cca Sci Smart Cor Preto</t>
+          <t>Kit 5 Controle Longa Distância Jfa Acqua 1200 A Prova De Ag</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>FONTE 40A STORM</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>423.99</v>
+        <v>390.99</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
@@ -1691,14 +1691,14 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-40-amperes-jfa-storm-red-line-cca-sci-smart-cor-preto/p/MLB21621306?pdp_filters=seller_id:728780866#searchVariation=MLB21621306&amp;position=50&amp;search_layout=stack&amp;type=product&amp;tracking_id=264c78f8-0544-4a15-9dec-f7a203df97a0</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3272217371-kit-5-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D8%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D95ea7b99-558d-448f-90dc-1ac2732c1317</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Kit 10 Controle Longa Distância Jfa Acqua 1200 A Prova De A</t>
+          <t>Kit 6 Controle Longa Distância Jfa Acqua 1200 A Prova De Ag</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1717,7 +1717,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>781.99</v>
+        <v>468.99</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
@@ -1736,14 +1736,14 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3272206435-kit-10-controle-longa-distncia-jfa-acqua-1200-a-prova-de-a-_JM#position%3D34%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D92dc9954-f204-4ff4-ae55-c8d78c850048</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3272255681-kit-6-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D95ea7b99-558d-448f-90dc-1ac2732c1317</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1753,20 +1753,20 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Storm Sci Redline Jfa 200a Slim Cor Preto</t>
+          <t>Kit 9 Controle Longa Distância Jfa Acqua 1200 A Prova De Ag</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>FONTE 200A STORM</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>805.59</v>
+        <v>702.99</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1781,14 +1781,14 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-storm-sci-redline-jfa-200a-slim-cor-preto/p/MLB26091477?pdp_filters=seller_id:728780866#searchVariation=MLB26091477&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=615d81b8-891e-4ce8-ba16-2e7e9c65e2e3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3272273907-kit-9-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D95ea7b99-558d-448f-90dc-1ac2732c1317</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1798,16 +1798,16 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Fonte Chaveada Carregador Automotivo Jfa 70a Storm Bivolt</t>
+          <t>Kit 8 Controle Longa Distância Jfa Acqua 1200 A Prova De Ag</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>519.39</v>
+        <v>624.99</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
@@ -1826,14 +1826,14 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3185233716-fonte-chaveada-carregador-automotivo-jfa-70a-storm-bivolt-_JM#position%3D19%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D15482e19-bab4-4898-9774-34346e8ca466</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3272240259-kit-8-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D95ea7b99-558d-448f-90dc-1ac2732c1317</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1843,25 +1843,25 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Fonte Som Automotivo Carregador Jfa Bob Storm 200a Caixa Bob</t>
+          <t>Fonte Chaveada Para Carro Jfa 90a Bob Storm Slim Bivolt Top</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>624.33</v>
+        <v>435.62</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FULL</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1871,14 +1871,14 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2715908897-fonte-som-automotivo-carregador-jfa-bob-storm-200a-caixa-bob-_JM#position%3D36%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D15482e19-bab4-4898-9774-34346e8ca466</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3244366352-fonte-chaveada-para-carro-jfa-90a-bob-storm-slim-bivolt-top-_JM#position%3D29%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D95ea7b99-558d-448f-90dc-1ac2732c1317</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1888,16 +1888,16 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Digital Jfa 60a Slim Bivolt Automatica Cor Preto</t>
+          <t>Kit 7 Controle Longa Distância Jfa Acqua 1200 A Prova De Ag</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>466.39</v>
+        <v>546.99</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -1916,14 +1916,14 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-digital-jfa-60a-slim-bivolt-automatica-cor-preto/p/MLB21630472?pdp_filters=seller_id:728780866#searchVariation=MLB21630472&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=615d81b8-891e-4ce8-ba16-2e7e9c65e2e3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3272217373-kit-7-controle-longa-distncia-jfa-acqua-1200-a-prova-de-ag-_JM#position%3D17%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D95ea7b99-558d-448f-90dc-1ac2732c1317</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1933,25 +1933,25 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Fonte Chaveada Para Carro Jfa 90a Bob Storm Slim Bivolt Top</t>
+          <t>Fonte Som Automotivo Carregador Jfa Bob Storm 200a Caixa Bob</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>422.93</v>
+        <v>643.0599999999999</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1961,14 +1961,14 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3244366352-fonte-chaveada-para-carro-jfa-90a-bob-storm-slim-bivolt-top-_JM#position%3D23%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D15482e19-bab4-4898-9774-34346e8ca466</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2715908897-fonte-som-automotivo-carregador-jfa-bob-storm-200a-caixa-bob-_JM#position%3D10%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D99d1a2bc-d2bb-451e-a989-db6de11165ac</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1987,7 +1987,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>83</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>FULL</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2006,14 +2006,14 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-remoto-universal-longa-distncia-jfa-k1200-azul/p/MLB28722231?pdp_filters=seller_id:728780866#searchVariation=MLB28722231&amp;position=26&amp;search_layout=stack&amp;type=product&amp;tracking_id=615d81b8-891e-4ce8-ba16-2e7e9c65e2e3</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2637018486-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D21%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D99d1a2bc-d2bb-451e-a989-db6de11165ac</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>01/08/2024</t>
+          <t>12/09/2024</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2023,35 +2023,125 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>Controle Remoto Universal Longa Distância Jfa K1200 Azul</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>K1200</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>64.86</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Igual</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2637055462-controle-remoto-universal-longa-distncia-jfa-k1200-azul-_JM#position%3D18%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D99d1a2bc-d2bb-451e-a989-db6de11165ac</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>bassanparts</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>Fonte Chaveada Carregador Automotivo Jfa 70a Storm Bivolt</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>FONTE 70A STORM</t>
         </is>
       </c>
-      <c r="E36" t="n">
-        <v>523.63</v>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Igual</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
+      <c r="E37" t="n">
+        <v>539.34</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
         <is>
           <t>FULL</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>premium</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2858496359-fonte-chaveada-carregador-automotivo-jfa-70a-storm-bivolt-_JM#position%3D41%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D15482e19-bab4-4898-9774-34346e8ca466</t>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2858496359-fonte-chaveada-carregador-automotivo-jfa-70a-storm-bivolt-_JM#position%3D12%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D99d1a2bc-d2bb-451e-a989-db6de11165ac</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>12/09/2024</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>bassanparts</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Fonte Chaveada Carregador Automotivo Jfa 70a Storm Bivolt</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>508.22</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3185233716-fonte-chaveada-carregador-automotivo-jfa-70a-storm-bivolt-_JM#position%3D13%26search_layout%3Dgrid%26type%3Ditem%26tracking_id%3D99d1a2bc-d2bb-451e-a989-db6de11165ac</t>
         </is>
       </c>
     </row>
